--- a/Översikt STRÄNGNÄS.xlsx
+++ b/Översikt STRÄNGNÄS.xlsx
@@ -575,7 +575,7 @@
         <v>45681</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>45898</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44376</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>44482</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>44642</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>45904</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>45896</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>45988</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>44711</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
         <v>44530.46248842592</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>44840</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>44641</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>45933</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>45992.40193287037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>45957</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>44963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>44515</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>44579</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>44505</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         <v>44930</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>45896</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>45905.55582175926</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>45839.44886574074</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>45224</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>45995</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>44726</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>44827</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>45215</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>45617</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>45531</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>44574</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>45684</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>44805</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>44874</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>44650</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>44579</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>44354.43200231482</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44358</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44256</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>44620</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>44421</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>44623</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>44439</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         <v>44637</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>44664</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>44852</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>44495</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>44244</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>44840</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>44284</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>44412</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>44406</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>44456</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>44475</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>44608</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>44439</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>44439.44982638889</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>44550.44184027778</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>44641.58368055556</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         <v>44274</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         <v>44277</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>44641</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>44272</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>44623</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>44363</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>44377</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>44319.47118055556</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>44503</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>44708</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>44354.42899305555</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>44531</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         <v>44432</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         <v>44763</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>44519.39126157408</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>44854</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>44873</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>44298.73017361111</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44524</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44711</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44867</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>44279</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>44830</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>44799</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>44445.51737268519</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>44385</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>44872</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>44872</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>44294</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>44309.56851851852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>44331</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>44377</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>44617.68679398148</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>44706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>44537</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>44615</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44354.43542824074</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>44272</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44384</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>44384</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>44406</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>44711</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>44872</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>44705</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>44617</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>44496.38612268519</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>44788</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7693,7 +7693,7 @@
         <v>44980</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>44980</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>45288</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>45288</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>44880.74898148148</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>45007</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>45617</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>44904.32708333333</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>44378</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>44838.585</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>44579</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>45091.62641203704</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>45280.49060185185</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>44991</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>45182</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>45057</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>45642.60890046296</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>45425</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>45392.53106481482</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>44880</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44992</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>45181</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>44432</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>44931.63074074074</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>45201</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>44508</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>44488</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>44496</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>45799.45325231482</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>45803.72429398148</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>45803.65414351852</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>44760</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>44834</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>45730</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>44571</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>44834</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>44987</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>45743</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>45894.49456018519</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9926,7 +9926,7 @@
         <v>45895</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>45896</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10040,7 +10040,7 @@
         <v>44398</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10102,7 +10102,7 @@
         <v>44398</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>45321</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>45896</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>45288</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44872</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>45832.49226851852</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>45071.42302083333</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>45905.54479166667</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44676</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>44931.73346064815</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44596</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>45911.36902777778</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44826</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44582</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44936</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>45831.4825</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>45775</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>45918</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>45831.47150462963</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>45075</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>45609</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>45434.61946759259</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>45384.62136574074</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>45253</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>44834</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>44830</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11599,7 +11599,7 @@
         <v>44496</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11656,7 +11656,7 @@
         <v>44540</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11713,7 +11713,7 @@
         <v>45873</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11770,7 +11770,7 @@
         <v>45646.61570601852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>45834.47796296296</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11884,7 +11884,7 @@
         <v>45799</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>45839.43186342593</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>45681</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>45839.43791666667</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>45839.44548611111</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>45933</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>45056</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>45838.65256944444</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12345,7 +12345,7 @@
         <v>45933</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12402,7 +12402,7 @@
         <v>45695</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12459,7 +12459,7 @@
         <v>44540</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12516,7 +12516,7 @@
         <v>44901</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12573,7 +12573,7 @@
         <v>45841</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12630,7 +12630,7 @@
         <v>45841</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12687,7 +12687,7 @@
         <v>44992</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12744,7 +12744,7 @@
         <v>45726</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12801,7 +12801,7 @@
         <v>45177</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>45128</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>44616</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>45628.69885416667</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>44882</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>44936.5134375</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         <v>45873</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>45849.82635416667</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>45364</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>45854</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>45713.55796296296</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>45950</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>45950.48399305555</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>45491</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>45071</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>45854</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>45869</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>45957.3075</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44659</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>45873.65800925926</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44644</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44946.48351851852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>45072</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>45525.43216435185</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>45684.71832175926</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>45960.68623842593</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>45204</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>45006</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>45288</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>45146.74372685186</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14526,7 +14526,7 @@
         <v>45742.82775462963</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14583,7 +14583,7 @@
         <v>45131</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>45965</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>45882.67344907407</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>45973.85230324074</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14811,7 +14811,7 @@
         <v>45979.49871527778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>45979.51064814815</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14925,7 +14925,7 @@
         <v>45939</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14982,7 +14982,7 @@
         <v>45979.54979166666</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>45422</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>45041</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>44963.58222222222</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>44946.48709490741</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>45692</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15329,7 +15329,7 @@
         <v>45551</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15386,7 +15386,7 @@
         <v>45709</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15443,7 +15443,7 @@
         <v>45986</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15500,7 +15500,7 @@
         <v>45986</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15557,7 +15557,7 @@
         <v>44936.37650462963</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15614,7 +15614,7 @@
         <v>44979</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15671,7 +15671,7 @@
         <v>46030.67390046296</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15728,7 +15728,7 @@
         <v>45189</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>46031.38653935185</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15842,7 +15842,7 @@
         <v>44481</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15899,7 +15899,7 @@
         <v>44987</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>45209</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>45377.72087962963</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         <v>46031.53706018518</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16132,7 +16132,7 @@
         <v>46030.60424768519</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16189,7 +16189,7 @@
         <v>44236</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>46034.57910879629</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16303,7 +16303,7 @@
         <v>45992.39026620371</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16360,7 +16360,7 @@
         <v>46035.49644675926</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16417,7 +16417,7 @@
         <v>45992.39575231481</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16474,7 +16474,7 @@
         <v>46034.61094907407</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16531,7 +16531,7 @@
         <v>46034.48202546296</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16588,7 +16588,7 @@
         <v>46034.65070601852</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16645,7 +16645,7 @@
         <v>46034.66802083333</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16702,7 +16702,7 @@
         <v>46035.69744212963</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16759,7 +16759,7 @@
         <v>46035.65237268519</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16816,7 +16816,7 @@
         <v>45628.69790509259</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16873,7 +16873,7 @@
         <v>46034.32579861111</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         <v>46034.38765046297</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16987,7 +16987,7 @@
         <v>45044</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17044,7 +17044,7 @@
         <v>46035.55983796297</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17101,7 +17101,7 @@
         <v>46034.34497685185</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17158,7 +17158,7 @@
         <v>46034.55472222222</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17215,7 +17215,7 @@
         <v>46036.58943287037</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17272,7 +17272,7 @@
         <v>45219</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17329,7 +17329,7 @@
         <v>45226</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17386,7 +17386,7 @@
         <v>46036.64560185185</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         <v>46037.61361111111</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17500,7 +17500,7 @@
         <v>46036.56039351852</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17557,7 +17557,7 @@
         <v>46036.60653935185</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>46036.57185185186</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>45209</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>45628.691875</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>45525.45232638889</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>46041.48710648148</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17904,7 +17904,7 @@
         <v>46041.3790625</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>45061</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44518</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>44525</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18137,7 +18137,7 @@
         <v>45628.69844907407</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>44496</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>44377</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>46000</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>45957</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>45988</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>44581</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>46044.59863425926</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>44928</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         <v>45957</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18732,7 +18732,7 @@
         <v>46044.6487037037</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18789,7 +18789,7 @@
         <v>45226</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>45988</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18903,7 +18903,7 @@
         <v>44671</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         <v>46044.35240740741</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19022,7 +19022,7 @@
         <v>45077</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19079,7 +19079,7 @@
         <v>45904</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19136,7 +19136,7 @@
         <v>45898</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19193,7 +19193,7 @@
         <v>45511.31266203704</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19250,7 +19250,7 @@
         <v>44273</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19307,7 +19307,7 @@
         <v>45177</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19369,7 +19369,7 @@
         <v>46008.57758101852</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         <v>46009.4964699074</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19483,7 +19483,7 @@
         <v>45044</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19540,7 +19540,7 @@
         <v>46043</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19597,7 +19597,7 @@
         <v>45044</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19654,7 +19654,7 @@
         <v>45237</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19716,7 +19716,7 @@
         <v>46043</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         <v>45898</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>45219</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19887,7 +19887,7 @@
         <v>44579</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19949,7 +19949,7 @@
         <v>44834</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>44953.80351851852</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20068,7 +20068,7 @@
         <v>44846.71223379629</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20125,7 +20125,7 @@
         <v>44998</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20182,7 +20182,7 @@
         <v>45235.49327546296</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20239,7 +20239,7 @@
         <v>45756.50608796296</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20296,7 +20296,7 @@
         <v>44998.43070601852</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20353,7 +20353,7 @@
         <v>44845.73668981482</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20415,7 +20415,7 @@
         <v>44987</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>45014</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>44459</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>45152</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20653,7 +20653,7 @@
         <v>44901</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20710,7 +20710,7 @@
         <v>44571</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20767,7 +20767,7 @@
         <v>45684.71578703704</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20824,7 +20824,7 @@
         <v>44617</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20881,7 +20881,7 @@
         <v>45121</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20938,7 +20938,7 @@
         <v>45265.58905092593</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20995,7 +20995,7 @@
         <v>44900</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21052,7 +21052,7 @@
         <v>45288</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21109,7 +21109,7 @@
         <v>44953</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>45051</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>45733.35274305556</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>45204</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>45071.40663194445</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>44496.90982638889</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>44699.85752314814</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>44831</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>44831</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>44617.6911574074</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21684,7 +21684,7 @@
         <v>44980</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>44931.63733796297</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21798,7 +21798,7 @@
         <v>45248</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21855,7 +21855,7 @@
         <v>44881</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21912,7 +21912,7 @@
         <v>44894</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21969,7 +21969,7 @@
         <v>45128</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>44279</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22083,7 +22083,7 @@
         <v>45089</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22140,7 +22140,7 @@
         <v>44713</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>45189.63930555555</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>45016</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>45058</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>45681.59104166667</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>45681</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44613.38766203704</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>44545</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22606,7 +22606,7 @@
         <v>44827.31700231481</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
         <v>45288</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>45401.68202546296</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
         <v>45665.84797453704</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         <v>44453</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22891,7 +22891,7 @@
         <v>45817</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
         <v>45224</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
         <v>45776</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23062,7 +23062,7 @@
         <v>45779</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23119,7 +23119,7 @@
         <v>45001</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23176,7 +23176,7 @@
         <v>44805.53609953704</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>44363</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23290,7 +23290,7 @@
         <v>45629.54146990741</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>

--- a/Översikt STRÄNGNÄS.xlsx
+++ b/Översikt STRÄNGNÄS.xlsx
@@ -575,7 +575,7 @@
         <v>45681</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>45898</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44376</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>44482</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>44642</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>45904</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>45896</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>45988</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>44711</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
         <v>44530.46248842592</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>44840</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>44641</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>45933</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>45992.40193287037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>45957</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>44963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>44515</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>44579</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>44505</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         <v>44930</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>45896</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>45905.55582175926</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>45839.44886574074</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>45224</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>45995</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>44726</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>44827</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>45215</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>45617</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>45531</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>44574</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>45684</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>44805</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>44874</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>44650</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>44579</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>44354.43200231482</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44358</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44256</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>44620</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>44421</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>44623</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>44439</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         <v>44637</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>44664</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>44852</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>44495</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>44244</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>44840</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>44284</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>44412</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>44406</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>44456</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>44475</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>44608</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>44439</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>44439.44982638889</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>44550.44184027778</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>44641.58368055556</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         <v>44274</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         <v>44277</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>44641</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>44272</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>44623</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>44363</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>44377</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>44319.47118055556</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>44503</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>44708</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>44354.42899305555</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>44531</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         <v>44432</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         <v>44763</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>44519.39126157408</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>44854</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>44873</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>44298.73017361111</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44524</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44711</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44867</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>44279</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>44830</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>44799</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>44445.51737268519</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>44385</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>44872</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>44872</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>44294</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>44309.56851851852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>44331</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>44377</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>44617.68679398148</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>44706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>44537</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>44615</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44354.43542824074</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>44272</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44384</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>44384</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>44406</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>44711</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>44872</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>44705</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>44617</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>44496.38612268519</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>44788</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7693,7 +7693,7 @@
         <v>44980</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>44980</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>45288</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>45288</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>44880.74898148148</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>45007</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>45617</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>44904.32708333333</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>44378</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>44838.585</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>44579</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>45091.62641203704</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>45280.49060185185</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>44991</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>45182</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>45057</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>45642.60890046296</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>45425</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>45392.53106481482</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>44880</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44992</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>45181</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>44432</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>44931.63074074074</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>45201</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>44508</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>44488</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>44496</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>45799.45325231482</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>45803.72429398148</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>45803.65414351852</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>44760</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>44834</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>45730</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>44571</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>44834</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>44987</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>45743</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>45894.49456018519</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9926,7 +9926,7 @@
         <v>45895</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>45896</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10040,7 +10040,7 @@
         <v>44398</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10102,7 +10102,7 @@
         <v>44398</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>45321</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>45896</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>45288</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44872</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>45832.49226851852</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>45071.42302083333</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>45905.54479166667</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44676</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>44931.73346064815</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44596</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>45911.36902777778</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44826</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44582</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44936</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>45831.4825</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>45775</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>45918</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>45831.47150462963</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>45075</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>45609</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>45434.61946759259</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>45384.62136574074</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>45253</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>44834</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>44830</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11599,7 +11599,7 @@
         <v>44496</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11656,7 +11656,7 @@
         <v>44540</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11713,7 +11713,7 @@
         <v>45873</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11770,7 +11770,7 @@
         <v>45646.61570601852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>45834.47796296296</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11884,7 +11884,7 @@
         <v>45799</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>45839.43186342593</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>45681</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>45839.43791666667</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>45839.44548611111</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>45933</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>45056</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>45838.65256944444</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12345,7 +12345,7 @@
         <v>45933</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12402,7 +12402,7 @@
         <v>45695</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12459,7 +12459,7 @@
         <v>44540</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12516,7 +12516,7 @@
         <v>44901</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12573,7 +12573,7 @@
         <v>45841</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12630,7 +12630,7 @@
         <v>45841</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12687,7 +12687,7 @@
         <v>44992</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12744,7 +12744,7 @@
         <v>45726</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12801,7 +12801,7 @@
         <v>45177</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>45128</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>44616</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>45628.69885416667</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>44882</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>44936.5134375</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         <v>45873</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>45849.82635416667</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>45364</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>45854</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>45713.55796296296</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>45950</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>45950.48399305555</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>45491</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>45071</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>45854</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>45869</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>45957.3075</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44659</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>45873.65800925926</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44644</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44946.48351851852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>45072</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>45525.43216435185</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>45684.71832175926</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>45960.68623842593</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>45204</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>45006</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>45288</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>45146.74372685186</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14526,7 +14526,7 @@
         <v>45742.82775462963</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14583,7 +14583,7 @@
         <v>45131</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>45965</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>45882.67344907407</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>45973.85230324074</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14811,7 +14811,7 @@
         <v>45979.49871527778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>45979.51064814815</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14925,7 +14925,7 @@
         <v>45939</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14982,7 +14982,7 @@
         <v>45979.54979166666</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>45422</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>45041</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>44963.58222222222</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>44946.48709490741</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>45692</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15329,7 +15329,7 @@
         <v>45551</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15386,7 +15386,7 @@
         <v>45709</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15443,7 +15443,7 @@
         <v>45986</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15500,7 +15500,7 @@
         <v>45986</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15557,7 +15557,7 @@
         <v>44936.37650462963</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15614,7 +15614,7 @@
         <v>44979</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15671,7 +15671,7 @@
         <v>46030.67390046296</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15728,7 +15728,7 @@
         <v>45189</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>46031.38653935185</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15842,7 +15842,7 @@
         <v>44481</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15899,7 +15899,7 @@
         <v>44987</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>45209</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>45377.72087962963</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         <v>46031.53706018518</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16132,7 +16132,7 @@
         <v>46030.60424768519</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16189,7 +16189,7 @@
         <v>44236</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>46034.57910879629</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16303,7 +16303,7 @@
         <v>45992.39026620371</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16360,7 +16360,7 @@
         <v>46035.49644675926</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16417,7 +16417,7 @@
         <v>45992.39575231481</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16474,7 +16474,7 @@
         <v>46034.61094907407</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16531,7 +16531,7 @@
         <v>46034.48202546296</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16588,7 +16588,7 @@
         <v>46034.65070601852</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16645,7 +16645,7 @@
         <v>46034.66802083333</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16702,7 +16702,7 @@
         <v>46035.69744212963</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16759,7 +16759,7 @@
         <v>46035.65237268519</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16816,7 +16816,7 @@
         <v>45628.69790509259</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16873,7 +16873,7 @@
         <v>46034.32579861111</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         <v>46034.38765046297</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16987,7 +16987,7 @@
         <v>45044</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17044,7 +17044,7 @@
         <v>46035.55983796297</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17101,7 +17101,7 @@
         <v>46034.34497685185</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17158,7 +17158,7 @@
         <v>46034.55472222222</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17215,7 +17215,7 @@
         <v>46036.58943287037</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17272,7 +17272,7 @@
         <v>45219</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17329,7 +17329,7 @@
         <v>45226</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17386,7 +17386,7 @@
         <v>46036.64560185185</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         <v>46037.61361111111</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17500,7 +17500,7 @@
         <v>46036.56039351852</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17557,7 +17557,7 @@
         <v>46036.60653935185</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>46036.57185185186</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>45209</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>45628.691875</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>45525.45232638889</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>46041.48710648148</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17904,7 +17904,7 @@
         <v>46041.3790625</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>45061</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44518</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>44525</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18137,7 +18137,7 @@
         <v>45628.69844907407</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>44496</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>44377</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>46000</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>45957</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>45988</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>44581</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>46044.59863425926</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>44928</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         <v>45957</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18732,7 +18732,7 @@
         <v>46044.6487037037</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18789,7 +18789,7 @@
         <v>45226</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>45988</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18903,7 +18903,7 @@
         <v>44671</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         <v>46044.35240740741</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19022,7 +19022,7 @@
         <v>45077</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19079,7 +19079,7 @@
         <v>45904</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19136,7 +19136,7 @@
         <v>45898</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19193,7 +19193,7 @@
         <v>45511.31266203704</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19250,7 +19250,7 @@
         <v>44273</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19307,7 +19307,7 @@
         <v>45177</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19369,7 +19369,7 @@
         <v>46008.57758101852</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         <v>46009.4964699074</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19483,7 +19483,7 @@
         <v>45044</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19540,7 +19540,7 @@
         <v>46043</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19597,7 +19597,7 @@
         <v>45044</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19654,7 +19654,7 @@
         <v>45237</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19716,7 +19716,7 @@
         <v>46043</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         <v>45898</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>45219</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19887,7 +19887,7 @@
         <v>44579</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19949,7 +19949,7 @@
         <v>44834</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>44953.80351851852</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20068,7 +20068,7 @@
         <v>44846.71223379629</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20125,7 +20125,7 @@
         <v>44998</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20182,7 +20182,7 @@
         <v>45235.49327546296</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20239,7 +20239,7 @@
         <v>45756.50608796296</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20296,7 +20296,7 @@
         <v>44998.43070601852</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20353,7 +20353,7 @@
         <v>44845.73668981482</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20415,7 +20415,7 @@
         <v>44987</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>45014</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>44459</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>45152</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20653,7 +20653,7 @@
         <v>44901</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20710,7 +20710,7 @@
         <v>44571</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20767,7 +20767,7 @@
         <v>45684.71578703704</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20824,7 +20824,7 @@
         <v>44617</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20881,7 +20881,7 @@
         <v>45121</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20938,7 +20938,7 @@
         <v>45265.58905092593</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20995,7 +20995,7 @@
         <v>44900</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21052,7 +21052,7 @@
         <v>45288</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21109,7 +21109,7 @@
         <v>44953</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>45051</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>45733.35274305556</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>45204</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>45071.40663194445</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>44496.90982638889</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>44699.85752314814</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>44831</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>44831</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>44617.6911574074</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21684,7 +21684,7 @@
         <v>44980</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>44931.63733796297</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21798,7 +21798,7 @@
         <v>45248</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21855,7 +21855,7 @@
         <v>44881</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21912,7 +21912,7 @@
         <v>44894</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21969,7 +21969,7 @@
         <v>45128</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>44279</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22083,7 +22083,7 @@
         <v>45089</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22140,7 +22140,7 @@
         <v>44713</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>45189.63930555555</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>45016</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>45058</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>45681.59104166667</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>45681</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44613.38766203704</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>44545</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22606,7 +22606,7 @@
         <v>44827.31700231481</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
         <v>45288</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>45401.68202546296</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
         <v>45665.84797453704</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         <v>44453</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22891,7 +22891,7 @@
         <v>45817</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
         <v>45224</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
         <v>45776</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23062,7 +23062,7 @@
         <v>45779</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23119,7 +23119,7 @@
         <v>45001</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23176,7 +23176,7 @@
         <v>44805.53609953704</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>44363</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23290,7 +23290,7 @@
         <v>45629.54146990741</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>

--- a/Översikt STRÄNGNÄS.xlsx
+++ b/Översikt STRÄNGNÄS.xlsx
@@ -575,7 +575,7 @@
         <v>45681</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>45898</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44376</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>44482</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>44642</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>45904</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>45896</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>45988</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>44711</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
         <v>44530.46248842592</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>44840</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1591,14 +1591,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 12671-2022</t>
+          <t>A 52999-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44641</v>
+        <v>45957</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1611,19 +1611,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1635,405 +1635,405 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
         <v>2</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
+          <t>Knärot
+Grönpyrola</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0486/artfynd/A 52999-2025 artfynd.xlsx", "A 52999-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0486/kartor/A 52999-2025 karta.png", "A 52999-2025")</f>
+        <v/>
+      </c>
+      <c r="U13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0486/knärot/A 52999-2025 karta knärot.png", "A 52999-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0486/klagomål/A 52999-2025 FSC-klagomål.docx", "A 52999-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0486/klagomålsmail/A 52999-2025 FSC-klagomål mail.docx", "A 52999-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0486/tillsyn/A 52999-2025 tillsynsbegäran.docx", "A 52999-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0486/tillsynsmail/A 52999-2025 tillsynsbegäran mail.docx", "A 52999-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 12671-2022</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>44641</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>STRÄNGNÄS</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>6</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
           <t>Fiskmås
 Svartvit flugsnappare</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/artfynd/A 12671-2022 artfynd.xlsx", "A 12671-2022")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/kartor/A 12671-2022 karta.png", "A 12671-2022")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/klagomål/A 12671-2022 FSC-klagomål.docx", "A 12671-2022")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/klagomålsmail/A 12671-2022 FSC-klagomål mail.docx", "A 12671-2022")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/tillsyn/A 12671-2022 tillsynsbegäran.docx", "A 12671-2022")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/tillsynsmail/A 12671-2022 tillsynsbegäran mail.docx", "A 12671-2022")</f>
         <v/>
       </c>
-      <c r="Z13">
+      <c r="Z14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/fåglar/A 12671-2022 prioriterade fågelarter.docx", "A 12671-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>A 48373-2025</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B15" s="1" t="n">
         <v>45933</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>STRÄNGNÄS</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
+      <c r="C15" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>STRÄNGNÄS</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
         <v>4.8</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H15" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>1</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>1</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P15" t="n">
         <v>1</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q15" t="n">
         <v>2</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/artfynd/A 48373-2025 artfynd.xlsx", "A 48373-2025")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/kartor/A 48373-2025 karta.png", "A 48373-2025")</f>
         <v/>
       </c>
-      <c r="U14">
+      <c r="U15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/knärot/A 48373-2025 karta knärot.png", "A 48373-2025")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/klagomål/A 48373-2025 FSC-klagomål.docx", "A 48373-2025")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/klagomålsmail/A 48373-2025 FSC-klagomål mail.docx", "A 48373-2025")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/tillsyn/A 48373-2025 tillsynsbegäran.docx", "A 48373-2025")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/tillsynsmail/A 48373-2025 tillsynsbegäran mail.docx", "A 48373-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>A 59633-2025</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>45992.40193287037</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>STRÄNGNÄS</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
+      <c r="C16" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>STRÄNGNÄS</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
         <v>4.4</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>2</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Tibast
 Blåsippa</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/artfynd/A 59633-2025 artfynd.xlsx", "A 59633-2025")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/kartor/A 59633-2025 karta.png", "A 59633-2025")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/klagomål/A 59633-2025 FSC-klagomål.docx", "A 59633-2025")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/klagomålsmail/A 59633-2025 FSC-klagomål mail.docx", "A 59633-2025")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/tillsyn/A 59633-2025 tillsynsbegäran.docx", "A 59633-2025")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/tillsynsmail/A 59633-2025 tillsynsbegäran mail.docx", "A 59633-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 6570-2023</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>44963</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>STRÄNGNÄS</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
+      <c r="C17" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>STRÄNGNÄS</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>1</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H17" t="n">
         <v>2</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>1</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>2</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Nordfladdermus
 Mattlummer</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/artfynd/A 6570-2023 artfynd.xlsx", "A 6570-2023")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/kartor/A 6570-2023 karta.png", "A 6570-2023")</f>
         <v/>
       </c>
-      <c r="U16">
+      <c r="U17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/knärot/A 6570-2023 karta knärot.png", "A 6570-2023")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/klagomål/A 6570-2023 FSC-klagomål.docx", "A 6570-2023")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/klagomålsmail/A 6570-2023 FSC-klagomål mail.docx", "A 6570-2023")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/tillsyn/A 6570-2023 tillsynsbegäran.docx", "A 6570-2023")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/tillsynsmail/A 6570-2023 tillsynsbegäran mail.docx", "A 6570-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 52999-2025</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45957</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>STRÄNGNÄS</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Grönpyrola</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0486/artfynd/A 52999-2025 artfynd.xlsx", "A 52999-2025")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0486/kartor/A 52999-2025 karta.png", "A 52999-2025")</f>
-        <v/>
-      </c>
-      <c r="U17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0486/knärot/A 52999-2025 karta knärot.png", "A 52999-2025")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0486/klagomål/A 52999-2025 FSC-klagomål.docx", "A 52999-2025")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0486/klagomålsmail/A 52999-2025 FSC-klagomål mail.docx", "A 52999-2025")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0486/tillsyn/A 52999-2025 tillsynsbegäran.docx", "A 52999-2025")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0486/tillsynsmail/A 52999-2025 tillsynsbegäran mail.docx", "A 52999-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>44515</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>44579</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>44505</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         <v>44930</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2386,14 +2386,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 32766-2025</t>
+          <t>A 40560-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45839.44886574074</v>
+        <v>45896</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2406,13 +2406,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.5</v>
+        <v>12.6</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2440,220 +2440,220 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
+          <t>Åkergroda</t>
+        </is>
+      </c>
+      <c r="S22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0486/artfynd/A 40560-2025 artfynd.xlsx", "A 40560-2025")</f>
+        <v/>
+      </c>
+      <c r="T22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0486/kartor/A 40560-2025 karta.png", "A 40560-2025")</f>
+        <v/>
+      </c>
+      <c r="V22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0486/klagomål/A 40560-2025 FSC-klagomål.docx", "A 40560-2025")</f>
+        <v/>
+      </c>
+      <c r="W22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0486/klagomålsmail/A 40560-2025 FSC-klagomål mail.docx", "A 40560-2025")</f>
+        <v/>
+      </c>
+      <c r="X22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0486/tillsyn/A 40560-2025 tillsynsbegäran.docx", "A 40560-2025")</f>
+        <v/>
+      </c>
+      <c r="Y22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0486/tillsynsmail/A 40560-2025 tillsynsbegäran mail.docx", "A 40560-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>A 42527-2025</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>45905.55582175926</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>STRÄNGNÄS</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>Mattlummer</t>
+        </is>
+      </c>
+      <c r="S23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0486/artfynd/A 42527-2025 artfynd.xlsx", "A 42527-2025")</f>
+        <v/>
+      </c>
+      <c r="T23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0486/kartor/A 42527-2025 karta.png", "A 42527-2025")</f>
+        <v/>
+      </c>
+      <c r="V23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0486/klagomål/A 42527-2025 FSC-klagomål.docx", "A 42527-2025")</f>
+        <v/>
+      </c>
+      <c r="W23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0486/klagomålsmail/A 42527-2025 FSC-klagomål mail.docx", "A 42527-2025")</f>
+        <v/>
+      </c>
+      <c r="X23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0486/tillsyn/A 42527-2025 tillsynsbegäran.docx", "A 42527-2025")</f>
+        <v/>
+      </c>
+      <c r="Y23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0486/tillsynsmail/A 42527-2025 tillsynsbegäran mail.docx", "A 42527-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>A 32766-2025</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>45839.44886574074</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>STRÄNGNÄS</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
           <t>Grönpyrola</t>
         </is>
       </c>
-      <c r="S22">
+      <c r="S24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/artfynd/A 32766-2025 artfynd.xlsx", "A 32766-2025")</f>
         <v/>
       </c>
-      <c r="T22">
+      <c r="T24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/kartor/A 32766-2025 karta.png", "A 32766-2025")</f>
         <v/>
       </c>
-      <c r="V22">
+      <c r="V24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/klagomål/A 32766-2025 FSC-klagomål.docx", "A 32766-2025")</f>
         <v/>
       </c>
-      <c r="W22">
+      <c r="W24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/klagomålsmail/A 32766-2025 FSC-klagomål mail.docx", "A 32766-2025")</f>
         <v/>
       </c>
-      <c r="X22">
+      <c r="X24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/tillsyn/A 32766-2025 tillsynsbegäran.docx", "A 32766-2025")</f>
         <v/>
       </c>
-      <c r="Y22">
+      <c r="Y24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/tillsynsmail/A 32766-2025 tillsynsbegäran mail.docx", "A 32766-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 40560-2025</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>45896</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>STRÄNGNÄS</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>Åkergroda</t>
-        </is>
-      </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0486/artfynd/A 40560-2025 artfynd.xlsx", "A 40560-2025")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0486/kartor/A 40560-2025 karta.png", "A 40560-2025")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0486/klagomål/A 40560-2025 FSC-klagomål.docx", "A 40560-2025")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0486/klagomålsmail/A 40560-2025 FSC-klagomål mail.docx", "A 40560-2025")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0486/tillsyn/A 40560-2025 tillsynsbegäran.docx", "A 40560-2025")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0486/tillsynsmail/A 40560-2025 tillsynsbegäran mail.docx", "A 40560-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 42527-2025</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>45905.55582175926</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>STRÄNGNÄS</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>Mattlummer</t>
-        </is>
-      </c>
-      <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0486/artfynd/A 42527-2025 artfynd.xlsx", "A 42527-2025")</f>
-        <v/>
-      </c>
-      <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0486/kartor/A 42527-2025 karta.png", "A 42527-2025")</f>
-        <v/>
-      </c>
-      <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0486/klagomål/A 42527-2025 FSC-klagomål.docx", "A 42527-2025")</f>
-        <v/>
-      </c>
-      <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0486/klagomålsmail/A 42527-2025 FSC-klagomål mail.docx", "A 42527-2025")</f>
-        <v/>
-      </c>
-      <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0486/tillsyn/A 42527-2025 tillsynsbegäran.docx", "A 42527-2025")</f>
-        <v/>
-      </c>
-      <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0486/tillsynsmail/A 42527-2025 tillsynsbegäran mail.docx", "A 42527-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 52320-2023</t>
+          <t>A 60734-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45224</v>
+        <v>45995</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2666,17 +2666,17 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>1</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2700,392 +2700,392 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
+          <t>Fyrflikig jordstjärna</t>
+        </is>
+      </c>
+      <c r="S25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0486/artfynd/A 60734-2025 artfynd.xlsx", "A 60734-2025")</f>
+        <v/>
+      </c>
+      <c r="T25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0486/kartor/A 60734-2025 karta.png", "A 60734-2025")</f>
+        <v/>
+      </c>
+      <c r="U25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0486/knärot/A 60734-2025 karta knärot.png", "A 60734-2025")</f>
+        <v/>
+      </c>
+      <c r="V25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0486/klagomål/A 60734-2025 FSC-klagomål.docx", "A 60734-2025")</f>
+        <v/>
+      </c>
+      <c r="W25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0486/klagomålsmail/A 60734-2025 FSC-klagomål mail.docx", "A 60734-2025")</f>
+        <v/>
+      </c>
+      <c r="X25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0486/tillsyn/A 60734-2025 tillsynsbegäran.docx", "A 60734-2025")</f>
+        <v/>
+      </c>
+      <c r="Y25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0486/tillsynsmail/A 60734-2025 tillsynsbegäran mail.docx", "A 60734-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>A 52320-2023</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>45224</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>STRÄNGNÄS</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
           <t>Mindre märgborre</t>
         </is>
       </c>
-      <c r="S25">
+      <c r="S26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/artfynd/A 52320-2023 artfynd.xlsx", "A 52320-2023")</f>
         <v/>
       </c>
-      <c r="T25">
+      <c r="T26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/kartor/A 52320-2023 karta.png", "A 52320-2023")</f>
         <v/>
       </c>
-      <c r="V25">
+      <c r="V26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/klagomål/A 52320-2023 FSC-klagomål.docx", "A 52320-2023")</f>
         <v/>
       </c>
-      <c r="W25">
+      <c r="W26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/klagomålsmail/A 52320-2023 FSC-klagomål mail.docx", "A 52320-2023")</f>
         <v/>
       </c>
-      <c r="X25">
+      <c r="X26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/tillsyn/A 52320-2023 tillsynsbegäran.docx", "A 52320-2023")</f>
         <v/>
       </c>
-      <c r="Y25">
+      <c r="Y26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/tillsynsmail/A 52320-2023 tillsynsbegäran mail.docx", "A 52320-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="inlineStr">
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="inlineStr">
         <is>
           <t>A 24454-2022</t>
         </is>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B27" s="1" t="n">
         <v>44726</v>
       </c>
-      <c r="C26" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>STRÄNGNÄS</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
+      <c r="C27" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>STRÄNGNÄS</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
         <v>12.5</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H27" t="n">
         <v>1</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
         <v>1</v>
       </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>1</v>
       </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
         <v>1</v>
       </c>
-      <c r="R26" s="2" t="inlineStr">
+      <c r="R27" s="2" t="inlineStr">
         <is>
           <t>Järpe</t>
         </is>
       </c>
-      <c r="S26">
+      <c r="S27">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/artfynd/A 24454-2022 artfynd.xlsx", "A 24454-2022")</f>
         <v/>
       </c>
-      <c r="T26">
+      <c r="T27">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/kartor/A 24454-2022 karta.png", "A 24454-2022")</f>
         <v/>
       </c>
-      <c r="V26">
+      <c r="V27">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/klagomål/A 24454-2022 FSC-klagomål.docx", "A 24454-2022")</f>
         <v/>
       </c>
-      <c r="W26">
+      <c r="W27">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/klagomålsmail/A 24454-2022 FSC-klagomål mail.docx", "A 24454-2022")</f>
         <v/>
       </c>
-      <c r="X26">
+      <c r="X27">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/tillsyn/A 24454-2022 tillsynsbegäran.docx", "A 24454-2022")</f>
         <v/>
       </c>
-      <c r="Y26">
+      <c r="Y27">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/tillsynsmail/A 24454-2022 tillsynsbegäran mail.docx", "A 24454-2022")</f>
         <v/>
       </c>
-      <c r="Z26">
+      <c r="Z27">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/fåglar/A 24454-2022 prioriterade fågelarter.docx", "A 24454-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="inlineStr">
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" t="inlineStr">
         <is>
           <t>A 41511-2022</t>
         </is>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B28" s="1" t="n">
         <v>44827</v>
       </c>
-      <c r="C27" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>STRÄNGNÄS</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
+      <c r="C28" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>STRÄNGNÄS</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
         <is>
           <t>Övriga Aktiebolag</t>
         </is>
       </c>
-      <c r="G27" t="n">
+      <c r="G28" t="n">
         <v>5</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
         <v>1</v>
       </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
         <v>1</v>
       </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
         <v>1</v>
       </c>
-      <c r="R27" s="2" t="inlineStr">
+      <c r="R28" s="2" t="inlineStr">
         <is>
           <t>Tallticka</t>
         </is>
       </c>
-      <c r="S27">
+      <c r="S28">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/artfynd/A 41511-2022 artfynd.xlsx", "A 41511-2022")</f>
         <v/>
       </c>
-      <c r="T27">
+      <c r="T28">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/kartor/A 41511-2022 karta.png", "A 41511-2022")</f>
         <v/>
       </c>
-      <c r="V27">
+      <c r="V28">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/klagomål/A 41511-2022 FSC-klagomål.docx", "A 41511-2022")</f>
         <v/>
       </c>
-      <c r="W27">
+      <c r="W28">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/klagomålsmail/A 41511-2022 FSC-klagomål mail.docx", "A 41511-2022")</f>
         <v/>
       </c>
-      <c r="X27">
+      <c r="X28">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/tillsyn/A 41511-2022 tillsynsbegäran.docx", "A 41511-2022")</f>
         <v/>
       </c>
-      <c r="Y27">
+      <c r="Y28">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/tillsynsmail/A 41511-2022 tillsynsbegäran mail.docx", "A 41511-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="inlineStr">
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" t="inlineStr">
         <is>
           <t>A 50010-2023</t>
         </is>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B29" s="1" t="n">
         <v>45215</v>
       </c>
-      <c r="C28" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>STRÄNGNÄS</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
+      <c r="C29" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>STRÄNGNÄS</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G28" t="n">
+      <c r="G29" t="n">
         <v>5.6</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H29" t="n">
         <v>1</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
         <v>1</v>
       </c>
-      <c r="R28" s="2" t="inlineStr">
+      <c r="R29" s="2" t="inlineStr">
         <is>
           <t>Blåsippa</t>
         </is>
       </c>
-      <c r="S28">
+      <c r="S29">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/artfynd/A 50010-2023 artfynd.xlsx", "A 50010-2023")</f>
         <v/>
       </c>
-      <c r="T28">
+      <c r="T29">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/kartor/A 50010-2023 karta.png", "A 50010-2023")</f>
         <v/>
       </c>
-      <c r="V28">
+      <c r="V29">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/klagomål/A 50010-2023 FSC-klagomål.docx", "A 50010-2023")</f>
         <v/>
       </c>
-      <c r="W28">
+      <c r="W29">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/klagomålsmail/A 50010-2023 FSC-klagomål mail.docx", "A 50010-2023")</f>
         <v/>
       </c>
-      <c r="X28">
+      <c r="X29">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/tillsyn/A 50010-2023 tillsynsbegäran.docx", "A 50010-2023")</f>
         <v/>
       </c>
-      <c r="Y28">
+      <c r="Y29">
         <f>HYPERLINK("https://klasma.github.io/Logging_0486/tillsynsmail/A 50010-2023 tillsynsbegäran mail.docx", "A 50010-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>A 60734-2025</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>45995</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>STRÄNGNÄS</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1</v>
-      </c>
-      <c r="R29" s="2" t="inlineStr">
-        <is>
-          <t>Fyrflikig jordstjärna</t>
-        </is>
-      </c>
-      <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0486/artfynd/A 60734-2025 artfynd.xlsx", "A 60734-2025")</f>
-        <v/>
-      </c>
-      <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0486/kartor/A 60734-2025 karta.png", "A 60734-2025")</f>
-        <v/>
-      </c>
-      <c r="U29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0486/knärot/A 60734-2025 karta knärot.png", "A 60734-2025")</f>
-        <v/>
-      </c>
-      <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0486/klagomål/A 60734-2025 FSC-klagomål.docx", "A 60734-2025")</f>
-        <v/>
-      </c>
-      <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0486/klagomålsmail/A 60734-2025 FSC-klagomål mail.docx", "A 60734-2025")</f>
-        <v/>
-      </c>
-      <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0486/tillsyn/A 60734-2025 tillsynsbegäran.docx", "A 60734-2025")</f>
-        <v/>
-      </c>
-      <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0486/tillsynsmail/A 60734-2025 tillsynsbegäran mail.docx", "A 60734-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>45617</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>45531</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>44574</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>45684</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3443,14 +3443,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 53488-2022</t>
+          <t>A 36853-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44874</v>
+        <v>44805</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3500,14 +3500,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 36853-2022</t>
+          <t>A 53488-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44805</v>
+        <v>44874</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3564,7 +3564,7 @@
         <v>44650</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>44579</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>44354.43200231482</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3728,14 +3728,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 10195-2021</t>
+          <t>A 28984-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44256</v>
+        <v>44358</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3785,14 +3785,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 28984-2021</t>
+          <t>A 10195-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44358</v>
+        <v>44256</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>44620</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>44421</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>44623</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4013,14 +4013,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 12277-2022</t>
+          <t>A 47251-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44637</v>
+        <v>44439</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>44664</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4127,14 +4127,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 47251-2021</t>
+          <t>A 12277-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44439</v>
+        <v>44637</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4184,14 +4184,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 8450-2021</t>
+          <t>A 47453-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44244</v>
+        <v>44852</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>5.7</v>
+        <v>1.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4241,14 +4241,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 47453-2022</t>
+          <t>A 8450-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44852</v>
+        <v>44244</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4261,7 +4261,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.7</v>
+        <v>5.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4305,7 +4305,7 @@
         <v>44495</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>44840</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>44284</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>44412</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>44406</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>44456</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>44439</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>44439.44982638889</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>44475</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>44608</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>44550.44184027778</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>44641.58368055556</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4997,14 +4997,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 13706-2021</t>
+          <t>A 14106-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44274</v>
+        <v>44277</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5054,14 +5054,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 14106-2021</t>
+          <t>A 13706-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44277</v>
+        <v>44274</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5118,7 +5118,7 @@
         <v>44272</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>44641</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5225,14 +5225,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 10391-2022</t>
+          <t>A 30063-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44623</v>
+        <v>44363</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.2</v>
+        <v>4.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5282,14 +5282,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 30063-2021</t>
+          <t>A 10391-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44363</v>
+        <v>44623</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.1</v>
+        <v>1.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5346,7 +5346,7 @@
         <v>44377</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>44319.47118055556</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>44503</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>44708</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>44354.42899305555</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>44531</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5681,14 +5681,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 30677-2022</t>
+          <t>A 43523-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44763</v>
+        <v>44432</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.1</v>
+        <v>9.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5738,14 +5738,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 43523-2021</t>
+          <t>A 30677-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44432</v>
+        <v>44763</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>9.6</v>
+        <v>1.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5802,7 +5802,7 @@
         <v>44519.39126157408</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>44854</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>44873</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>44298.73017361111</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6023,14 +6023,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 67639-2021</t>
+          <t>A 22069-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44524</v>
+        <v>44711</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6080,14 +6080,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 22069-2022</t>
+          <t>A 67639-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44711</v>
+        <v>44524</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6144,7 +6144,7 @@
         <v>44867</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6194,14 +6194,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 14437-2021</t>
+          <t>A 42103-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44279</v>
+        <v>44830</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6213,8 +6213,13 @@
           <t>STRÄNGNÄS</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6251,14 +6256,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 42103-2022</t>
+          <t>A 35814-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44830</v>
+        <v>44799</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6270,13 +6275,8 @@
           <t>STRÄNGNÄS</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6313,14 +6313,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 35814-2022</t>
+          <t>A 14437-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44799</v>
+        <v>44279</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6377,7 +6377,7 @@
         <v>44445.51737268519</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>44385</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>44872</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>44872</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>44294</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>44309.56851851852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>44331</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>44377</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>44617.68679398148</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>44706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>44537</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>44615</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44354.43542824074</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>44272</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44384</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>44384</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>44406</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>44711</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>44705</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>44872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>44617</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>44496.38612268519</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>44788</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7693,7 +7693,7 @@
         <v>44980</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>44980</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>45288</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>45288</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>45007</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7976,14 +7976,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 33752-2021</t>
+          <t>A 53897-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44378</v>
+        <v>44880.74898148148</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8033,14 +8033,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 53897-2022</t>
+          <t>A 54610-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44880.74898148148</v>
+        <v>45617</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.3</v>
+        <v>5.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8090,14 +8090,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 64355-2023</t>
+          <t>A 59060-2022</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45280.49060185185</v>
+        <v>44904.32708333333</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>5.9</v>
+        <v>3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8147,14 +8147,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 54610-2024</t>
+          <t>A 33752-2021</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45617</v>
+        <v>44378</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>5.3</v>
+        <v>3.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8204,14 +8204,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 59060-2022</t>
+          <t>A 43946-2022</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44904.32708333333</v>
+        <v>44838.585</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8261,14 +8261,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 43946-2022</t>
+          <t>A 64355-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44838.585</v>
+        <v>45280.49060185185</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.1</v>
+        <v>5.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8325,7 +8325,7 @@
         <v>44579</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>45091.62641203704</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8437,14 +8437,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 21126-2023</t>
+          <t>A 10867-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45057</v>
+        <v>44991</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8494,14 +8494,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 10867-2023</t>
+          <t>A 42806-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44991</v>
+        <v>45182</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.3</v>
+        <v>4.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8551,14 +8551,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 60143-2024</t>
+          <t>A 21126-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45642.60890046296</v>
+        <v>45057</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.3</v>
+        <v>2.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8608,14 +8608,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 42806-2023</t>
+          <t>A 60143-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45182</v>
+        <v>45642.60890046296</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>4.7</v>
+        <v>0.3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8665,14 +8665,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 18508-2024</t>
+          <t>A 11243-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45425</v>
+        <v>44992</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>4.7</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8722,14 +8722,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 11243-2023</t>
+          <t>A 18508-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44992</v>
+        <v>45425</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>45392.53106481482</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44880</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8893,14 +8893,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 42726-2023</t>
+          <t>A 61124-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45181</v>
+        <v>46000</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8912,8 +8912,13 @@
           <t>STRÄNGNÄS</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>2.7</v>
+        <v>4.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8950,14 +8955,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 864-2023</t>
+          <t>A 52998-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44931.63074074074</v>
+        <v>45957</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9007,14 +9012,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 43412-2021</t>
+          <t>A 59293-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44432</v>
+        <v>45988</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9027,7 +9032,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9064,14 +9069,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 57231-2024</t>
+          <t>A 4112-2026</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45629.54146990741</v>
+        <v>46044.59863425926</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9121,14 +9126,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 58518-2021</t>
+          <t>A 52997-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44488</v>
+        <v>45957</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9174,18 +9179,38 @@
         <v>0</v>
       </c>
       <c r="R133" s="2" t="inlineStr"/>
+      <c r="U133">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0486/knärot/A 52997-2025 karta knärot.png", "A 52997-2025")</f>
+        <v/>
+      </c>
+      <c r="V133">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0486/klagomål/A 52997-2025 FSC-klagomål.docx", "A 52997-2025")</f>
+        <v/>
+      </c>
+      <c r="W133">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0486/klagomålsmail/A 52997-2025 FSC-klagomål mail.docx", "A 52997-2025")</f>
+        <v/>
+      </c>
+      <c r="X133">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0486/tillsyn/A 52997-2025 tillsynsbegäran.docx", "A 52997-2025")</f>
+        <v/>
+      </c>
+      <c r="Y133">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0486/tillsynsmail/A 52997-2025 tillsynsbegäran mail.docx", "A 52997-2025")</f>
+        <v/>
+      </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 63732-2021</t>
+          <t>A 864-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44508</v>
+        <v>44931.63074074074</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9198,7 +9223,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>6.1</v>
+        <v>1.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9235,14 +9260,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 60748-2021</t>
+          <t>A 4151-2026</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44496</v>
+        <v>46044.6487037037</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9255,7 +9280,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.9</v>
+        <v>4.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9292,14 +9317,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 46882-2023</t>
+          <t>A 42726-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45201</v>
+        <v>45181</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9312,7 +9337,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>8.5</v>
+        <v>2.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9349,14 +9374,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 24823-2025</t>
+          <t>A 1117-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45799.45325231482</v>
+        <v>44571</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9369,7 +9394,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9406,14 +9431,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 25729-2025</t>
+          <t>A 59294-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45803.72429398148</v>
+        <v>45988</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9426,7 +9451,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>4.3</v>
+        <v>0.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9463,14 +9488,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 25685-2025</t>
+          <t>A 57231-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45803.65414351852</v>
+        <v>45629.54146990741</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9483,7 +9508,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9520,14 +9545,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 1117-2022</t>
+          <t>A 43412-2021</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44571</v>
+        <v>44432</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9540,7 +9565,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9577,14 +9602,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 30375-2022</t>
+          <t>A 3971-2026</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44760</v>
+        <v>46044.35240740741</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9597,7 +9622,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>5</v>
+        <v>6.8</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9634,14 +9659,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 43386-2022</t>
+          <t>A 58518-2021</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44834</v>
+        <v>44488</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9654,7 +9679,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>5.1</v>
+        <v>1.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9691,14 +9716,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 12546-2025</t>
+          <t>A 24823-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45730</v>
+        <v>45799.45325231482</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9711,7 +9736,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9748,14 +9773,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 43388-2022</t>
+          <t>A 63732-2021</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44834</v>
+        <v>44508</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9768,7 +9793,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>16.5</v>
+        <v>6.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9805,14 +9830,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 15087-2025</t>
+          <t>A 60748-2021</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45743</v>
+        <v>44496</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9825,7 +9850,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>4.9</v>
+        <v>1.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9862,14 +9887,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 10350-2023</t>
+          <t>A 46882-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44987</v>
+        <v>45201</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9882,7 +9907,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.6</v>
+        <v>8.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9919,14 +9944,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 37429-2021</t>
+          <t>A 25729-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44398</v>
+        <v>45803.72429398148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9938,13 +9963,8 @@
           <t>STRÄNGNÄS</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>1.6</v>
+        <v>4.3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9981,14 +10001,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 37431-2021</t>
+          <t>A 25685-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44398</v>
+        <v>45803.65414351852</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10000,13 +10020,8 @@
           <t>STRÄNGNÄS</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>4.8</v>
+        <v>2.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10043,14 +10058,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 3824-2024</t>
+          <t>A 40112-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45321</v>
+        <v>45894.49456018519</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10063,7 +10078,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10100,14 +10115,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 65161-2023</t>
+          <t>A 40279-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45288</v>
+        <v>45895</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10120,7 +10135,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.5</v>
+        <v>4.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10157,14 +10172,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 51763-2022</t>
+          <t>A 40611-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44872</v>
+        <v>45896</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10177,7 +10192,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10214,14 +10229,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 30636-2025</t>
+          <t>A 40605-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45831.4825</v>
+        <v>45896</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10234,7 +10249,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10271,14 +10286,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 22530-2023</t>
+          <t>A 30999-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45071.42302083333</v>
+        <v>45832.49226851852</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10291,7 +10306,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.1</v>
+        <v>4.8</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10328,14 +10343,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 30622-2025</t>
+          <t>A 15087-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45831.47150462963</v>
+        <v>45743</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10348,7 +10363,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.6</v>
+        <v>4.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10385,14 +10400,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 17066-2022</t>
+          <t>A 42515-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44676</v>
+        <v>45905.54479166667</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10404,8 +10419,13 @@
           <t>STRÄNGNÄS</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10442,14 +10462,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 40112-2025</t>
+          <t>A 42345-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45894.49456018519</v>
+        <v>45904</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10462,7 +10482,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10499,14 +10519,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 40279-2025</t>
+          <t>A 30375-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45895</v>
+        <v>44760</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10519,7 +10539,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10556,14 +10576,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 888-2023</t>
+          <t>A 43386-2022</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44931.73346064815</v>
+        <v>44834</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10576,7 +10596,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2</v>
+        <v>5.1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10613,14 +10633,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 40611-2025</t>
+          <t>A 12546-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45896</v>
+        <v>45730</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10633,7 +10653,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10670,14 +10690,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 5805-2022</t>
+          <t>A 41231-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44596</v>
+        <v>45898</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10690,7 +10710,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.2</v>
+        <v>5.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10727,14 +10747,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 31745-2025</t>
+          <t>A 43388-2022</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45834.47796296296</v>
+        <v>44834</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10747,7 +10767,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.3</v>
+        <v>16.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10784,14 +10804,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 24980-2025</t>
+          <t>A 43391-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45799</v>
+        <v>45911.36902777778</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10803,13 +10823,8 @@
           <t>STRÄNGNÄS</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G162" t="n">
-        <v>0.9</v>
+        <v>4.3</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10846,14 +10861,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 32755-2025</t>
+          <t>A 10350-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45839.43186342593</v>
+        <v>44987</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10866,7 +10881,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>5.1</v>
+        <v>0.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10903,14 +10918,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 3773-2025</t>
+          <t>A 30636-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45681</v>
+        <v>45831.4825</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10923,7 +10938,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10960,14 +10975,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 32761-2025</t>
+          <t>A 37429-2021</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45839.43791666667</v>
+        <v>44398</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10979,8 +10994,13 @@
           <t>STRÄNGNÄS</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>11.9</v>
+        <v>1.6</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11017,14 +11037,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 32763-2025</t>
+          <t>A 37431-2021</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45839.44548611111</v>
+        <v>44398</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11036,8 +11056,13 @@
           <t>STRÄNGNÄS</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G166" t="n">
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11074,14 +11099,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 40605-2025</t>
+          <t>A 3824-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45896</v>
+        <v>45321</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11094,7 +11119,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11131,14 +11156,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 41241-2022</t>
+          <t>A 30622-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44826</v>
+        <v>45831.47150462963</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11151,7 +11176,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>9.199999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11188,14 +11213,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 32627-2025</t>
+          <t>A 65161-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45838.65256944444</v>
+        <v>45288</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11208,7 +11233,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11245,14 +11270,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 33539-2025</t>
+          <t>A 44929-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45841</v>
+        <v>45918</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11265,7 +11290,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11302,14 +11327,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 33537-2025</t>
+          <t>A 62746-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45841</v>
+        <v>46008.57758101852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11322,7 +11347,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11359,14 +11384,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 3185-2022</t>
+          <t>A 51763-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44582</v>
+        <v>44872</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11379,7 +11404,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>6.1</v>
+        <v>2.8</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11416,14 +11441,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 1251-2023</t>
+          <t>A 62988-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44936</v>
+        <v>46009.4964699074</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11436,7 +11461,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>6.1</v>
+        <v>0.7</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11473,14 +11498,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 20590-2025</t>
+          <t>A 22530-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45775</v>
+        <v>45071.42302083333</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11493,7 +11518,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>5.8</v>
+        <v>2.1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11530,14 +11555,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 23225-2023</t>
+          <t>A 31745-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45075</v>
+        <v>45834.47796296296</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11550,7 +11575,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>7.1</v>
+        <v>1.3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11587,14 +11612,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 52452-2024</t>
+          <t>A 24980-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45609</v>
+        <v>45799</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11606,8 +11631,13 @@
           <t>STRÄNGNÄS</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11644,14 +11674,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 20181-2024</t>
+          <t>A 32755-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45434.61946759259</v>
+        <v>45839.43186342593</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11664,7 +11694,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.7</v>
+        <v>5.1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11701,14 +11731,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 12792-2024</t>
+          <t>A 3773-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45384.62136574074</v>
+        <v>45681</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11721,7 +11751,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>19.1</v>
+        <v>2.7</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11758,14 +11788,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 59304-2023</t>
+          <t>A 32761-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45253</v>
+        <v>45839.43791666667</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11778,7 +11808,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>7.1</v>
+        <v>11.9</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11815,14 +11845,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 30999-2025</t>
+          <t>A 17066-2022</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45832.49226851852</v>
+        <v>44676</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11835,7 +11865,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11872,14 +11902,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 43669-2022</t>
+          <t>A 32763-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44834</v>
+        <v>45839.44548611111</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11892,7 +11922,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11929,14 +11959,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 42117-2022</t>
+          <t>A 32627-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44830</v>
+        <v>45838.65256944444</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11948,13 +11978,8 @@
           <t>STRÄNGNÄS</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G182" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11991,14 +12016,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 60747-2021</t>
+          <t>A 888-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44496</v>
+        <v>44931.73346064815</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12011,7 +12036,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12048,14 +12073,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 34994-2025</t>
+          <t>A 36792-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45849.82635416667</v>
+        <v>45873</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12067,13 +12092,8 @@
           <t>STRÄNGNÄS</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G184" t="n">
-        <v>10.9</v>
+        <v>0.7</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12110,14 +12130,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 71414-2021</t>
+          <t>A 5805-2022</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44540</v>
+        <v>44596</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12130,7 +12150,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12167,14 +12187,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 61567-2024</t>
+          <t>A 33539-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45646.61570601852</v>
+        <v>45841</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12187,7 +12207,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12224,14 +12244,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 35370-2025</t>
+          <t>A 33537-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45854</v>
+        <v>45841</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12244,7 +12264,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12281,14 +12301,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 42515-2025</t>
+          <t>A 3738-2026</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45905.54479166667</v>
+        <v>46043</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12300,13 +12320,8 @@
           <t>STRÄNGNÄS</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G188" t="n">
-        <v>3.9</v>
+        <v>5.4</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12343,14 +12358,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 30477-2024</t>
+          <t>A 41241-2022</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45491</v>
+        <v>44826</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12363,7 +12378,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12400,14 +12415,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 35372-2025</t>
+          <t>A 3185-2022</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45854</v>
+        <v>44582</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12420,7 +12435,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12457,14 +12472,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 21015-2023</t>
+          <t>A 1251-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45056</v>
+        <v>44936</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12477,7 +12492,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>5.2</v>
+        <v>6.1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12514,14 +12529,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 36440-2025</t>
+          <t>A 48367-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45869</v>
+        <v>45933</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12534,7 +12549,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.8</v>
+        <v>12</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12571,14 +12586,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 36799-2025</t>
+          <t>A 34994-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45873.65800925926</v>
+        <v>45849.82635416667</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12590,8 +12605,13 @@
           <t>STRÄNGNÄS</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>2.3</v>
+        <v>10.9</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12628,14 +12648,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 6057-2025</t>
+          <t>A 20590-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45695</v>
+        <v>45775</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12648,7 +12668,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.4</v>
+        <v>5.8</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12685,14 +12705,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 71391-2021</t>
+          <t>A 35370-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44540</v>
+        <v>45854</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12705,7 +12725,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12742,14 +12762,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 58238-2022</t>
+          <t>A 23225-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44901</v>
+        <v>45075</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12762,7 +12782,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.9</v>
+        <v>7.1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12799,14 +12819,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 11690-2023</t>
+          <t>A 48371-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44992</v>
+        <v>45933</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12819,7 +12839,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12856,14 +12876,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 11281-2025</t>
+          <t>A 52452-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45726</v>
+        <v>45609</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12876,7 +12896,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12913,14 +12933,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 43391-2025</t>
+          <t>A 20181-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45911.36902777778</v>
+        <v>45434.61946759259</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12933,7 +12953,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>4.3</v>
+        <v>1.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12970,14 +12990,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 42777-2023</t>
+          <t>A 30477-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45177</v>
+        <v>45491</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12989,13 +13009,8 @@
           <t>STRÄNGNÄS</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13032,14 +13047,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 33342-2023</t>
+          <t>A 12792-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45128</v>
+        <v>45384.62136574074</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13052,7 +13067,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>3.1</v>
+        <v>19.1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13089,14 +13104,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 9511-2022</t>
+          <t>A 59304-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44616</v>
+        <v>45253</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13109,7 +13124,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>5.3</v>
+        <v>7.1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13146,14 +13161,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 56989-2024</t>
+          <t>A 43669-2022</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45628.69885416667</v>
+        <v>44834</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13166,7 +13181,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>7.6</v>
+        <v>1.9</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13203,14 +13218,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 54383-2022</t>
+          <t>A 42117-2022</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44882</v>
+        <v>44830</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13222,8 +13237,13 @@
           <t>STRÄNGNÄS</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13260,14 +13280,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 1305-2023</t>
+          <t>A 60747-2021</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44936.5134375</v>
+        <v>44496</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13280,7 +13300,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13317,14 +13337,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 38198-2025</t>
+          <t>A 35372-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45882.67344907407</v>
+        <v>45854</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13337,7 +13357,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>3.4</v>
+        <v>6.3</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13374,14 +13394,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 10151-2024</t>
+          <t>A 71414-2021</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45364</v>
+        <v>44540</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13393,13 +13413,8 @@
           <t>STRÄNGNÄS</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G207" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13436,14 +13451,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 8998-2025</t>
+          <t>A 61567-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45713.55796296296</v>
+        <v>45646.61570601852</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13456,7 +13471,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>4.2</v>
+        <v>0.5</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13493,14 +13508,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 44929-2025</t>
+          <t>A 36440-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45918</v>
+        <v>45869</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13513,7 +13528,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13550,14 +13565,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 22522-2023</t>
+          <t>A 36799-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45071</v>
+        <v>45873.65800925926</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13570,7 +13585,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13607,14 +13622,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 15397-2022</t>
+          <t>A 36796-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44659</v>
+        <v>45873</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13627,7 +13642,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13664,14 +13679,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 36792-2025</t>
+          <t>A 3733-2026</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45873</v>
+        <v>46043</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13684,7 +13699,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13721,14 +13736,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 13259-2022</t>
+          <t>A 41234-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44644</v>
+        <v>45898</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13741,7 +13756,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13778,14 +13793,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 3118-2023</t>
+          <t>A 21015-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44946.48351851852</v>
+        <v>45056</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13798,7 +13813,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.8</v>
+        <v>5.2</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13835,14 +13850,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 23001-2023</t>
+          <t>A 51330-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45072</v>
+        <v>45950</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13855,7 +13870,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13892,14 +13907,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 34391-2024</t>
+          <t>A 51405-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45525.43216435185</v>
+        <v>45950.48399305555</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13912,7 +13927,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13949,14 +13964,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 4115-2025</t>
+          <t>A 38198-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45684.71832175926</v>
+        <v>45882.67344907407</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13969,7 +13984,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -14006,14 +14021,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 48875-2023</t>
+          <t>A 6057-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45204</v>
+        <v>45695</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14026,7 +14041,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -14063,14 +14078,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 13613-2023</t>
+          <t>A 71391-2021</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45006</v>
+        <v>44540</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14083,7 +14098,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14120,14 +14135,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 48367-2025</t>
+          <t>A 58238-2022</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45933</v>
+        <v>44901</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14140,7 +14155,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>12</v>
+        <v>1.9</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14177,14 +14192,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 65153-2023</t>
+          <t>A 11690-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45288</v>
+        <v>44992</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14197,7 +14212,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14234,14 +14249,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 48371-2025</t>
+          <t>A 52712-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45933</v>
+        <v>45957.3075</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14254,7 +14269,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14291,14 +14306,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 35495-2023</t>
+          <t>A 11281-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45146.74372685186</v>
+        <v>45726</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14311,7 +14326,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>7.4</v>
+        <v>0.5</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14348,14 +14363,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 14793-2025</t>
+          <t>A 42777-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45742.82775462963</v>
+        <v>45177</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14367,8 +14382,13 @@
           <t>STRÄNGNÄS</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G224" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14405,14 +14425,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 34364-2023</t>
+          <t>A 53773-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45131</v>
+        <v>45960.68623842593</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14425,7 +14445,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14462,14 +14482,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 18358-2024</t>
+          <t>A 33342-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45422</v>
+        <v>45128</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14482,7 +14502,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14519,14 +14539,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 18242-2023</t>
+          <t>A 9511-2022</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45041</v>
+        <v>44616</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14538,13 +14558,8 @@
           <t>STRÄNGNÄS</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G227" t="n">
-        <v>0.6</v>
+        <v>5.3</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14581,14 +14596,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 36796-2025</t>
+          <t>A 56989-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45873</v>
+        <v>45628.69885416667</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14601,7 +14616,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.9</v>
+        <v>7.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14638,14 +14653,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 5849-2023</t>
+          <t>A 54383-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44963.58222222222</v>
+        <v>44882</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14658,7 +14673,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14695,14 +14710,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 3121-2023</t>
+          <t>A 1305-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44946.48709490741</v>
+        <v>44936.5134375</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14715,7 +14730,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14752,14 +14767,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 5458-2025</t>
+          <t>A 54451-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45692</v>
+        <v>45965</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14809,14 +14824,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 39448-2024</t>
+          <t>A 10151-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45551</v>
+        <v>45364</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14828,8 +14843,13 @@
           <t>STRÄNGNÄS</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G232" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14866,14 +14886,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 8524-2025</t>
+          <t>A 8998-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45709</v>
+        <v>45713.55796296296</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14886,7 +14906,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>5.9</v>
+        <v>4.2</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14923,14 +14943,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 51330-2025</t>
+          <t>A 56124-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45950</v>
+        <v>45973.85230324074</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14943,7 +14963,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14980,14 +15000,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 51405-2025</t>
+          <t>A 57150-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45950.48399305555</v>
+        <v>45979.49871527778</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15000,7 +15020,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>5.5</v>
+        <v>13.8</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -15037,14 +15057,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 1256-2023</t>
+          <t>A 57153-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44936.37650462963</v>
+        <v>45979.51064814815</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15057,7 +15077,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15094,14 +15114,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 9034-2023</t>
+          <t>A 49759-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44979</v>
+        <v>45939</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15114,7 +15134,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15151,14 +15171,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 44479-2023</t>
+          <t>A 22522-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45189</v>
+        <v>45071</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15171,7 +15191,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15208,14 +15228,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 57048-2021</t>
+          <t>A 57174-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44481</v>
+        <v>45979.54979166666</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15228,7 +15248,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>9</v>
+        <v>5.1</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15265,14 +15285,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 10352-2023</t>
+          <t>A 15397-2022</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44987</v>
+        <v>44659</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15285,7 +15305,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15322,14 +15342,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 48886-2023</t>
+          <t>A 58936-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45209</v>
+        <v>45986</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15342,7 +15362,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15379,14 +15399,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 12152-2024</t>
+          <t>A 13259-2022</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45377.72087962963</v>
+        <v>44644</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15398,13 +15418,8 @@
           <t>STRÄNGNÄS</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G242" t="n">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15441,14 +15456,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 52712-2025</t>
+          <t>A 3118-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45957.3075</v>
+        <v>44946.48351851852</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15498,14 +15513,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 56987-2024</t>
+          <t>A 58935-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45628.69790509259</v>
+        <v>45986</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15518,7 +15533,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.8</v>
+        <v>6.6</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15555,14 +15570,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 18879-2023</t>
+          <t>A 23001-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45044</v>
+        <v>45072</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15612,14 +15627,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 53773-2025</t>
+          <t>A 34391-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45960.68623842593</v>
+        <v>45525.43216435185</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15632,7 +15647,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15669,14 +15684,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 52773-2023</t>
+          <t>A 4115-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45219</v>
+        <v>45684.71832175926</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15726,14 +15741,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 52840-2023</t>
+          <t>A 1108-2026</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45226</v>
+        <v>46030.67390046296</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15746,7 +15761,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15783,14 +15798,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 48823-2023</t>
+          <t>A 48875-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45209</v>
+        <v>45204</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15802,13 +15817,8 @@
           <t>STRÄNGNÄS</t>
         </is>
       </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G249" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15845,14 +15855,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 56984-2024</t>
+          <t>A 13613-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45628.691875</v>
+        <v>45006</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15865,7 +15875,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>7.6</v>
+        <v>0.9</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15902,14 +15912,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 34401-2024</t>
+          <t>A 65153-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45525.45232638889</v>
+        <v>45288</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15922,7 +15932,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15959,14 +15969,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 20938-2023</t>
+          <t>A 1209-2026</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45061</v>
+        <v>46031.38653935185</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15979,7 +15989,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -16016,14 +16026,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 66296-2021</t>
+          <t>A 1313-2026</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44518</v>
+        <v>46031.53706018518</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16035,13 +16045,8 @@
           <t>STRÄNGNÄS</t>
         </is>
       </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G253" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -16078,14 +16083,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 54451-2025</t>
+          <t>A 35495-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45965</v>
+        <v>45146.74372685186</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16098,7 +16103,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>2.3</v>
+        <v>7.4</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16135,14 +16140,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 67925-2021</t>
+          <t>A 14793-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44525</v>
+        <v>45742.82775462963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16155,7 +16160,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -16192,14 +16197,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 56988-2024</t>
+          <t>A 1018-2026</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45628.69844907407</v>
+        <v>46030.60424768519</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16212,7 +16217,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.8</v>
+        <v>4.7</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -16249,14 +16254,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 60764-2021</t>
+          <t>A 34364-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>44496</v>
+        <v>45131</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16269,7 +16274,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -16306,14 +16311,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 33314-2021</t>
+          <t>A 1680-2026</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44377</v>
+        <v>46034.57910879629</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16326,7 +16331,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16363,14 +16368,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 56124-2025</t>
+          <t>A 59626-2025</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45973.85230324074</v>
+        <v>45992.39026620371</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16383,7 +16388,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16420,14 +16425,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 57150-2025</t>
+          <t>A 1892-2026</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45979.49871527778</v>
+        <v>46035.49644675926</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16440,7 +16445,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>13.8</v>
+        <v>7.2</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16477,14 +16482,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 3037-2022</t>
+          <t>A 59630-2025</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>44581</v>
+        <v>45992.39575231481</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16497,7 +16502,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1.5</v>
+        <v>10.9</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16534,14 +16539,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 243-2023</t>
+          <t>A 1718-2026</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>44928</v>
+        <v>46034.61094907407</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16554,7 +16559,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16591,14 +16596,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 57153-2025</t>
+          <t>A 1624-2026</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45979.51064814815</v>
+        <v>46034.48202546296</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16611,7 +16616,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16648,14 +16653,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 49759-2025</t>
+          <t>A 1744-2026</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45939</v>
+        <v>46034.65070601852</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16668,7 +16673,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16705,14 +16710,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 52904-2023</t>
+          <t>A 1757-2026</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45226</v>
+        <v>46034.66802083333</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16725,7 +16730,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>9.9</v>
+        <v>2.5</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16762,14 +16767,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 57174-2025</t>
+          <t>A 2007-2026</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45979.54979166666</v>
+        <v>46035.69744212963</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16782,7 +16787,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>5.1</v>
+        <v>1</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16819,14 +16824,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 16414-2022</t>
+          <t>A 1977-2026</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>44671</v>
+        <v>46035.65237268519</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16838,13 +16843,8 @@
           <t>STRÄNGNÄS</t>
         </is>
       </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G267" t="n">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16881,14 +16881,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 23541-2023</t>
+          <t>A 1496-2026</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45077</v>
+        <v>46034.32579861111</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>3.1</v>
+        <v>6.2</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16938,14 +16938,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 32079-2024</t>
+          <t>A 1553-2026</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45511.31266203704</v>
+        <v>46034.38765046297</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16995,14 +16995,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 13504-2021</t>
+          <t>A 1915-2026</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>44273</v>
+        <v>46035.55983796297</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -17052,14 +17052,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 42750-2023</t>
+          <t>A 1511-2026</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45177</v>
+        <v>46034.34497685185</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17071,13 +17071,8 @@
           <t>STRÄNGNÄS</t>
         </is>
       </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G271" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -17114,14 +17109,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 58936-2025</t>
+          <t>A 1660-2026</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45986</v>
+        <v>46034.55472222222</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17134,7 +17129,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>2.7</v>
+        <v>4.4</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -17171,14 +17166,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 58935-2025</t>
+          <t>A 2302-2026</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45986</v>
+        <v>46036.58943287037</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17191,7 +17186,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>6.6</v>
+        <v>4.3</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -17228,14 +17223,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 1108-2026</t>
+          <t>A 2368-2026</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>46030.67390046296</v>
+        <v>46036.64560185185</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17248,7 +17243,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -17285,14 +17280,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 1209-2026</t>
+          <t>A 2636-2026</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>46031.38653935185</v>
+        <v>46037.61361111111</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17305,7 +17300,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -17342,14 +17337,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 18860-2023</t>
+          <t>A 2256-2026</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45044</v>
+        <v>46036.56039351852</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17362,7 +17357,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -17399,14 +17394,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 18865-2023</t>
+          <t>A 2328-2026</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45044</v>
+        <v>46036.60653935185</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17419,7 +17414,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1.1</v>
+        <v>5.2</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -17456,14 +17451,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 1313-2026</t>
+          <t>A 2268-2026</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>46031.53706018518</v>
+        <v>46036.57185185186</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17476,7 +17471,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -17513,14 +17508,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 1018-2026</t>
+          <t>A 18358-2024</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>46030.60424768519</v>
+        <v>45422</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17533,7 +17528,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>4.7</v>
+        <v>2</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17570,14 +17565,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 55054-2023</t>
+          <t>A 18242-2023</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45237</v>
+        <v>45041</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17591,11 +17586,11 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G280" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17632,14 +17627,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 1680-2026</t>
+          <t>A 3207-2026</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>46034.57910879629</v>
+        <v>46041.48710648148</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17652,7 +17647,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>4.9</v>
+        <v>1.2</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17689,14 +17684,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 59626-2025</t>
+          <t>A 3127-2026</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45992.39026620371</v>
+        <v>46041.3790625</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17709,7 +17704,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17746,14 +17741,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 1892-2026</t>
+          <t>A 5849-2023</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>46035.49644675926</v>
+        <v>44963.58222222222</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17766,7 +17761,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>7.2</v>
+        <v>0.5</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17803,14 +17798,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 59630-2025</t>
+          <t>A 3121-2023</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45992.39575231481</v>
+        <v>44946.48709490741</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17823,7 +17818,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>10.9</v>
+        <v>2.3</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17860,14 +17855,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 1718-2026</t>
+          <t>A 5458-2025</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>46034.61094907407</v>
+        <v>45692</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17880,7 +17875,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17917,14 +17912,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 1624-2026</t>
+          <t>A 39448-2024</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>46034.48202546296</v>
+        <v>45551</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17937,7 +17932,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17974,14 +17969,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 1744-2026</t>
+          <t>A 8524-2025</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>46034.65070601852</v>
+        <v>45709</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17994,7 +17989,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>3</v>
+        <v>5.9</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -18031,14 +18026,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 1757-2026</t>
+          <t>A 1256-2023</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>46034.66802083333</v>
+        <v>44936.37650462963</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18051,7 +18046,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -18088,14 +18083,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 2007-2026</t>
+          <t>A 9034-2023</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>46035.69744212963</v>
+        <v>44979</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18108,7 +18103,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -18145,14 +18140,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 1977-2026</t>
+          <t>A 44479-2023</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>46035.65237268519</v>
+        <v>45189</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18165,7 +18160,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -18202,14 +18197,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 52790-2023</t>
+          <t>A 57048-2021</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45219</v>
+        <v>44481</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18222,7 +18217,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -18259,14 +18254,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 1496-2026</t>
+          <t>A 10352-2023</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>46034.32579861111</v>
+        <v>44987</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18279,7 +18274,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>6.2</v>
+        <v>0.4</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -18316,14 +18311,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 1553-2026</t>
+          <t>A 48886-2023</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>46034.38765046297</v>
+        <v>45209</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18336,7 +18331,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -18373,14 +18368,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 1915-2026</t>
+          <t>A 12152-2024</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>46035.55983796297</v>
+        <v>45377.72087962963</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18392,8 +18387,13 @@
           <t>STRÄNGNÄS</t>
         </is>
       </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G294" t="n">
-        <v>0.9</v>
+        <v>4.8</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -18430,14 +18430,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 1511-2026</t>
+          <t>A 56987-2024</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>46034.34497685185</v>
+        <v>45628.69790509259</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -18487,14 +18487,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 1660-2026</t>
+          <t>A 18879-2023</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>46034.55472222222</v>
+        <v>45044</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>4.4</v>
+        <v>1.8</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -18544,14 +18544,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 2302-2026</t>
+          <t>A 52773-2023</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>46036.58943287037</v>
+        <v>45219</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>4.3</v>
+        <v>1.8</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -18601,14 +18601,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 2497-2022</t>
+          <t>A 52840-2023</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>44579</v>
+        <v>45226</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18620,13 +18620,8 @@
           <t>STRÄNGNÄS</t>
         </is>
       </c>
-      <c r="F298" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G298" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18663,14 +18658,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 2368-2026</t>
+          <t>A 48823-2023</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>46036.64560185185</v>
+        <v>45209</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18682,8 +18677,13 @@
           <t>STRÄNGNÄS</t>
         </is>
       </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G299" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18720,14 +18720,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 2636-2026</t>
+          <t>A 56984-2024</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>46037.61361111111</v>
+        <v>45628.691875</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18740,7 +18740,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>0.7</v>
+        <v>7.6</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18777,14 +18777,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 2256-2026</t>
+          <t>A 34401-2024</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>46036.56039351852</v>
+        <v>45525.45232638889</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18797,7 +18797,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>3.1</v>
+        <v>0.4</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18834,14 +18834,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 2328-2026</t>
+          <t>A 20938-2023</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>46036.60653935185</v>
+        <v>45061</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18854,7 +18854,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>5.2</v>
+        <v>3.8</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18891,14 +18891,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 2268-2026</t>
+          <t>A 66296-2021</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>46036.57185185186</v>
+        <v>44518</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18910,8 +18910,13 @@
           <t>STRÄNGNÄS</t>
         </is>
       </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G303" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18948,14 +18953,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 43387-2022</t>
+          <t>A 67925-2021</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>44834</v>
+        <v>44525</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18968,7 +18973,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -19005,14 +19010,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 3207-2026</t>
+          <t>A 56988-2024</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>46041.48710648148</v>
+        <v>45628.69844907407</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19025,7 +19030,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -19062,14 +19067,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 3127-2026</t>
+          <t>A 60764-2021</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>46041.3790625</v>
+        <v>44496</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19082,7 +19087,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -19119,14 +19124,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 4335-2023</t>
+          <t>A 33314-2021</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>44953.80351851852</v>
+        <v>44377</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19138,13 +19143,8 @@
           <t>STRÄNGNÄS</t>
         </is>
       </c>
-      <c r="F307" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G307" t="n">
-        <v>1</v>
+        <v>5.2</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -19181,14 +19181,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 45984-2022</t>
+          <t>A 3037-2022</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>44846.71223379629</v>
+        <v>44581</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19201,7 +19201,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>5.4</v>
+        <v>1.5</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -19238,14 +19238,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 12114-2023</t>
+          <t>A 243-2023</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>44998</v>
+        <v>44928</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -19295,14 +19295,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 54656-2023</t>
+          <t>A 52904-2023</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45235.49327546296</v>
+        <v>45226</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>3.4</v>
+        <v>9.9</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -19352,14 +19352,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 17249-2025</t>
+          <t>A 16414-2022</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45756.50608796296</v>
+        <v>44671</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19371,8 +19371,13 @@
           <t>STRÄNGNÄS</t>
         </is>
       </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G311" t="n">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -19409,14 +19414,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 61124-2025</t>
+          <t>A 23541-2023</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>46000</v>
+        <v>45077</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19428,13 +19433,8 @@
           <t>STRÄNGNÄS</t>
         </is>
       </c>
-      <c r="F312" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G312" t="n">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -19471,14 +19471,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 52998-2025</t>
+          <t>A 32079-2024</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>45957</v>
+        <v>45511.31266203704</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19491,7 +19491,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -19528,14 +19528,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 12123-2023</t>
+          <t>A 13504-2021</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>44998.43070601852</v>
+        <v>44273</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19548,7 +19548,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -19585,14 +19585,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 59293-2025</t>
+          <t>A 42750-2023</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>45988</v>
+        <v>45177</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19604,8 +19604,13 @@
           <t>STRÄNGNÄS</t>
         </is>
       </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G315" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -19642,14 +19647,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 4112-2026</t>
+          <t>A 18860-2023</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>46044.59863425926</v>
+        <v>45044</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19662,7 +19667,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -19699,14 +19704,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 52997-2025</t>
+          <t>A 18865-2023</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45957</v>
+        <v>45044</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19719,7 +19724,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -19752,38 +19757,18 @@
         <v>0</v>
       </c>
       <c r="R317" s="2" t="inlineStr"/>
-      <c r="U317">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0486/knärot/A 52997-2025 karta knärot.png", "A 52997-2025")</f>
-        <v/>
-      </c>
-      <c r="V317">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0486/klagomål/A 52997-2025 FSC-klagomål.docx", "A 52997-2025")</f>
-        <v/>
-      </c>
-      <c r="W317">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0486/klagomålsmail/A 52997-2025 FSC-klagomål mail.docx", "A 52997-2025")</f>
-        <v/>
-      </c>
-      <c r="X317">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0486/tillsyn/A 52997-2025 tillsynsbegäran.docx", "A 52997-2025")</f>
-        <v/>
-      </c>
-      <c r="Y317">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0486/tillsynsmail/A 52997-2025 tillsynsbegäran mail.docx", "A 52997-2025")</f>
-        <v/>
-      </c>
     </row>
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 4151-2026</t>
+          <t>A 55054-2023</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>46044.6487037037</v>
+        <v>45237</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19795,8 +19780,13 @@
           <t>STRÄNGNÄS</t>
         </is>
       </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G318" t="n">
-        <v>4.6</v>
+        <v>1.9</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -19833,14 +19823,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 59294-2025</t>
+          <t>A 52790-2023</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>45988</v>
+        <v>45219</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19853,7 +19843,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -19890,14 +19880,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 3971-2026</t>
+          <t>A 2497-2022</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>46044.35240740741</v>
+        <v>44579</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19909,8 +19899,13 @@
           <t>STRÄNGNÄS</t>
         </is>
       </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G320" t="n">
-        <v>6.8</v>
+        <v>2.3</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -19947,14 +19942,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 42345-2025</t>
+          <t>A 43387-2022</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>45904</v>
+        <v>44834</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19967,7 +19962,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -20004,14 +19999,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 41231-2025</t>
+          <t>A 4335-2023</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>45898</v>
+        <v>44953.80351851852</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20023,8 +20018,13 @@
           <t>STRÄNGNÄS</t>
         </is>
       </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G322" t="n">
-        <v>5.3</v>
+        <v>1</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -20061,14 +20061,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 45669-2022</t>
+          <t>A 45984-2022</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>44845.73668981482</v>
+        <v>44846.71223379629</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20080,13 +20080,8 @@
           <t>STRÄNGNÄS</t>
         </is>
       </c>
-      <c r="F323" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G323" t="n">
-        <v>6.5</v>
+        <v>5.4</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -20123,14 +20118,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 10346-2023</t>
+          <t>A 12114-2023</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>44987</v>
+        <v>44998</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20143,7 +20138,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>1.6</v>
+        <v>7</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -20180,14 +20175,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 62746-2025</t>
+          <t>A 54656-2023</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>46008.57758101852</v>
+        <v>45235.49327546296</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20200,7 +20195,7 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -20237,14 +20232,14 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 62988-2025</t>
+          <t>A 17249-2025</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>46009.4964699074</v>
+        <v>45756.50608796296</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20257,7 +20252,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -20294,14 +20289,14 @@
     <row r="327" ht="15" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>A 14847-2023</t>
+          <t>A 12123-2023</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
-        <v>45014</v>
+        <v>44998.43070601852</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20313,13 +20308,8 @@
           <t>STRÄNGNÄS</t>
         </is>
       </c>
-      <c r="F327" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G327" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -20356,14 +20346,14 @@
     <row r="328" ht="15" customHeight="1">
       <c r="A328" t="inlineStr">
         <is>
-          <t>A 50296-2021</t>
+          <t>A 45669-2022</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>44459</v>
+        <v>44845.73668981482</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20375,8 +20365,13 @@
           <t>STRÄNGNÄS</t>
         </is>
       </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G328" t="n">
-        <v>1.3</v>
+        <v>6.5</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -20413,14 +20408,14 @@
     <row r="329" ht="15" customHeight="1">
       <c r="A329" t="inlineStr">
         <is>
-          <t>A 36469-2023</t>
+          <t>A 10346-2023</t>
         </is>
       </c>
       <c r="B329" s="1" t="n">
-        <v>45152</v>
+        <v>44987</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20432,13 +20427,8 @@
           <t>STRÄNGNÄS</t>
         </is>
       </c>
-      <c r="F329" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G329" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -20475,14 +20465,14 @@
     <row r="330" ht="15" customHeight="1">
       <c r="A330" t="inlineStr">
         <is>
-          <t>A 3738-2026</t>
+          <t>A 14847-2023</t>
         </is>
       </c>
       <c r="B330" s="1" t="n">
-        <v>46043</v>
+        <v>45014</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20494,8 +20484,13 @@
           <t>STRÄNGNÄS</t>
         </is>
       </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G330" t="n">
-        <v>5.4</v>
+        <v>0.9</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -20532,14 +20527,14 @@
     <row r="331" ht="15" customHeight="1">
       <c r="A331" t="inlineStr">
         <is>
-          <t>A 58241-2022</t>
+          <t>A 50296-2021</t>
         </is>
       </c>
       <c r="B331" s="1" t="n">
-        <v>44901</v>
+        <v>44459</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20552,7 +20547,7 @@
         </is>
       </c>
       <c r="G331" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -20589,14 +20584,14 @@
     <row r="332" ht="15" customHeight="1">
       <c r="A332" t="inlineStr">
         <is>
-          <t>A 3733-2026</t>
+          <t>A 36469-2023</t>
         </is>
       </c>
       <c r="B332" s="1" t="n">
-        <v>46043</v>
+        <v>45152</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20608,8 +20603,13 @@
           <t>STRÄNGNÄS</t>
         </is>
       </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G332" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -20646,14 +20646,14 @@
     <row r="333" ht="15" customHeight="1">
       <c r="A333" t="inlineStr">
         <is>
-          <t>A 41234-2025</t>
+          <t>A 58241-2022</t>
         </is>
       </c>
       <c r="B333" s="1" t="n">
-        <v>45898</v>
+        <v>44901</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20666,7 +20666,7 @@
         </is>
       </c>
       <c r="G333" t="n">
-        <v>3.2</v>
+        <v>0.4</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -20710,7 +20710,7 @@
         <v>44571</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20767,7 +20767,7 @@
         <v>45684.71578703704</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20824,7 +20824,7 @@
         <v>44617</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20881,7 +20881,7 @@
         <v>45121</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20938,7 +20938,7 @@
         <v>45265.58905092593</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20995,7 +20995,7 @@
         <v>44900</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21052,7 +21052,7 @@
         <v>45288</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21109,7 +21109,7 @@
         <v>44953</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>45051</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>45733.35274305556</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>45204</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>45071.40663194445</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>44496.90982638889</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>44699.85752314814</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>44831</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>44831</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>44617.6911574074</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21684,7 +21684,7 @@
         <v>44980</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>44931.63733796297</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21798,7 +21798,7 @@
         <v>45248</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21855,7 +21855,7 @@
         <v>44881</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21912,7 +21912,7 @@
         <v>44894</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21969,7 +21969,7 @@
         <v>45128</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>44279</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22083,7 +22083,7 @@
         <v>45089</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22140,7 +22140,7 @@
         <v>44713</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>45189.63930555555</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>45016</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>45058</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>45681.59104166667</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>45681</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44613.38766203704</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>44545</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22606,7 +22606,7 @@
         <v>44827.31700231481</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
         <v>45288</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>45401.68202546296</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
         <v>45665.84797453704</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         <v>44453</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22891,7 +22891,7 @@
         <v>45817</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
         <v>45224</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
         <v>45776</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23062,7 +23062,7 @@
         <v>45779</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23119,7 +23119,7 @@
         <v>45001</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23176,7 +23176,7 @@
         <v>44805.53609953704</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>44363</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>

--- a/Översikt STRÄNGNÄS.xlsx
+++ b/Översikt STRÄNGNÄS.xlsx
@@ -575,7 +575,7 @@
         <v>45681</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>45898</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44376</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>44482</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>44642</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>45904</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>45896</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>45988</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>44711</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
         <v>44530.46248842592</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>44840</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>44641</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>45933</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>45992.40193287037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>45957</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>44963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>44515</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>44579</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>44505</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         <v>44930</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>45839.44886574074</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>45905.55582175926</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>45224</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>45995</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>44726</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>44827</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>45215</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>45617</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>45896</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>45531</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>44574</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>45684</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>44874</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>44805</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>44650</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>44579</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>44354.43200231482</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44358</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44256</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>44620</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>44421</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>44623</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>44439</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         <v>44637</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>44664</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>44852</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>44495</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>44284</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>44412</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>44840</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>44406</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>44456</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>44439</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>44439.44982638889</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>44475</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>44608</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>44550.44184027778</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>44641.58368055556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>44274</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         <v>44277</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         <v>44272</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>44641</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>44623</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>44363</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>44377</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>44319.47118055556</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>44503</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>44708</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>44354.42899305555</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>44531</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>44432</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         <v>44763</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         <v>44519.39126157408</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>44854</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>44873</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>44298.73017361111</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>44524</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44711</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44867</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44279</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>44830</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>44799</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>44445.51737268519</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>44385</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>44872</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>44872</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>44309.56851851852</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>44294</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>44331</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>44377</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>44617.68679398148</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>44706</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>44537</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>44615</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>44354.43542824074</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44272</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>44384</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44384</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>44406</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>44711</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>44705</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>44872</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>44617</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>44496.38612268519</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>44788</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>44980</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7693,7 +7693,7 @@
         <v>44980</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>45288</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>45288</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>45007</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>44880.74898148148</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>45617</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>44904.32708333333</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>44378</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>44838.585</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>44579</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>45091.62641203704</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>45280.49060185185</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>45057</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>44991</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>45182</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>45642.60890046296</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>45425</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>44992</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>45392.53106481482</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>44880</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44931.63074074074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>45181</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>44432</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>44488</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>44508</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>45201</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>44496</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>44760</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>44834</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>44834</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>45730</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>44987</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>44398</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>44398</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>45321</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>45288</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>44571</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>44872</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         <v>45071.42302083333</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>44676</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>44931.73346064815</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>45831.4825</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>44596</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>45894.49456018519</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>45895</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>45831.47150462963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>45896</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>45896</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>44826</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>44582</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>44936</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>45834.47796296296</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>45832.49226851852</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10734,7 +10734,7 @@
         <v>45799</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>45839.43186342593</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>45775</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>45681</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>45839.43791666667</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>45905.54479166667</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>45839.44548611111</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>45838.65256944444</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>45075</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>45609</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>45434.61946759259</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>45384.62136574074</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>45253</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>44834</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11542,7 +11542,7 @@
         <v>44830</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>45841</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>45841</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>44496</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>45911.36902777778</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>44540</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>45646.61570601852</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>45849.82635416667</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>45854</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>45056</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>45918</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>45491</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>45695</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44540</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44901</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44992</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>45726</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>45854</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>45177</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>45873</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>45869</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>45128</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44616</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>45628.69885416667</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44882</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>44936.5134375</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>45873.65800925926</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>45933</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>45364</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>45933</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>45713.55796296296</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>45882.67344907407</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>45071</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>44659</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>45873</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44644</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>44946.48351851852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>45072</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>45525.43216435185</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>45684.71832175926</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>45950</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>45950.48399305555</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>45204</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>45006</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>45288</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>45146.74372685186</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>45742.82775462963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>45131</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>45957.3075</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>45960.68623842593</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>45422</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>45041</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>44963.58222222222</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>44946.48709490741</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14645,7 +14645,7 @@
         <v>45965</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14702,7 +14702,7 @@
         <v>45692</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14759,7 +14759,7 @@
         <v>45551</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14816,7 +14816,7 @@
         <v>45709</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14873,7 +14873,7 @@
         <v>44936.37650462963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>45973.85230324074</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>44979</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15044,7 +15044,7 @@
         <v>45979.49871527778</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>45979.51064814815</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>45939</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>45979.54979166666</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>45189</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15329,7 +15329,7 @@
         <v>44481</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15386,7 +15386,7 @@
         <v>44987</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15443,7 +15443,7 @@
         <v>45209</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15500,7 +15500,7 @@
         <v>45377.72087962963</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>45986</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>45986</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>45628.69790509259</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>45044</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15790,7 +15790,7 @@
         <v>45219</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>45226</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15904,7 +15904,7 @@
         <v>46034.57910879629</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
         <v>45992.39026620371</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16018,7 +16018,7 @@
         <v>46035.49644675926</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         <v>45992.39575231481</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16132,7 +16132,7 @@
         <v>46034.61094907407</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16189,7 +16189,7 @@
         <v>46034.48202546296</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>46034.65070601852</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16303,7 +16303,7 @@
         <v>46034.66802083333</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16360,7 +16360,7 @@
         <v>46035.69744212963</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16417,7 +16417,7 @@
         <v>46035.65237268519</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16474,7 +16474,7 @@
         <v>45209</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>46034.32579861111</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>46034.38765046297</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16650,7 +16650,7 @@
         <v>45628.691875</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16707,7 +16707,7 @@
         <v>45525.45232638889</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16764,7 +16764,7 @@
         <v>46035.55983796297</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         <v>46034.34497685185</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16878,7 +16878,7 @@
         <v>46034.55472222222</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16935,7 +16935,7 @@
         <v>46036.58943287037</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16992,7 +16992,7 @@
         <v>46036.64560185185</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17049,7 +17049,7 @@
         <v>46037.61361111111</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         <v>46036.56039351852</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17163,7 +17163,7 @@
         <v>46036.60653935185</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
         <v>45061</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17277,7 +17277,7 @@
         <v>46036.57185185186</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17334,7 +17334,7 @@
         <v>44518</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>46041.48710648148</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>46041.3790625</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>44525</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>45628.69844907407</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44496</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>44377</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>44581</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>44928</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>45226</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44671</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>46000</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18033,7 +18033,7 @@
         <v>45957</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18090,7 +18090,7 @@
         <v>45077</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18147,7 +18147,7 @@
         <v>45988</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18204,7 +18204,7 @@
         <v>46044.59863425926</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         <v>45957</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>46044.6487037037</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>45988</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>46044.35240740741</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>45511.31266203704</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>44273</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>45904</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>45177</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18742,7 +18742,7 @@
         <v>45898</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>45044</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         <v>45044</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
         <v>46008.57758101852</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>46009.4964699074</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>45237</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>46043</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19146,7 +19146,7 @@
         <v>45219</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19203,7 +19203,7 @@
         <v>46043</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19260,7 +19260,7 @@
         <v>44579</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>45898</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44834</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44953.80351851852</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>44846.71223379629</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19555,7 +19555,7 @@
         <v>44998</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>45235.49327546296</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19669,7 +19669,7 @@
         <v>45756.50608796296</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19726,7 +19726,7 @@
         <v>44998.43070601852</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19783,7 +19783,7 @@
         <v>44845.73668981482</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>44987</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>45014</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19964,7 +19964,7 @@
         <v>44459</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20021,7 +20021,7 @@
         <v>45152</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20083,7 +20083,7 @@
         <v>46031.38653935185</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20140,7 +20140,7 @@
         <v>44901</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20197,7 +20197,7 @@
         <v>46030.67390046296</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20254,7 +20254,7 @@
         <v>46073</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20311,7 +20311,7 @@
         <v>46031.53706018518</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20368,7 +20368,7 @@
         <v>46030.60424768519</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20425,7 +20425,7 @@
         <v>44571</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20482,7 +20482,7 @@
         <v>45684.71578703704</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         <v>44617</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20596,7 +20596,7 @@
         <v>45121</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20653,7 +20653,7 @@
         <v>45265.58905092593</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20710,7 +20710,7 @@
         <v>44900</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20767,7 +20767,7 @@
         <v>45288</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20824,7 +20824,7 @@
         <v>44953</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>45051</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>45733.35274305556</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>45204</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>45071.40663194445</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>44496.90982638889</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>44699.85752314814</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>44831</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>44831</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>44617.6911574074</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>44980</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>44931.63733796297</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>45248</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>44881</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>44894</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21684,7 +21684,7 @@
         <v>45128</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>44279</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21798,7 +21798,7 @@
         <v>45089</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21855,7 +21855,7 @@
         <v>44713</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>45189.63930555555</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>45016</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>45058</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>45681.59104166667</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>45681</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44613.38766203704</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44545</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44827.31700231481</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>45288</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>45401.68202546296</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>45665.84797453704</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44453</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22606,7 +22606,7 @@
         <v>45817</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
         <v>45224</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>45776</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
         <v>45779</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         <v>45001</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22891,7 +22891,7 @@
         <v>44805.53609953704</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
         <v>44363</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
         <v>45629.54146990741</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23062,7 +23062,7 @@
         <v>45799.45325231482</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23119,7 +23119,7 @@
         <v>45803.72429398148</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23176,7 +23176,7 @@
         <v>45803.65414351852</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>45743</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>

--- a/Översikt STRÄNGNÄS.xlsx
+++ b/Översikt STRÄNGNÄS.xlsx
@@ -575,7 +575,7 @@
         <v>45681</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>45898</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44376</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>44482</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>44642</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>45904</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>45896</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>45988</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>44711</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
         <v>44530.46248842592</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>44840</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>44641</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>45933</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>45992.40193287037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>45957</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>44963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>44515</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>44579</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>44505</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         <v>44930</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>45839.44886574074</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>45905.55582175926</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>45224</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>45995</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>44726</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>44827</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>45215</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>45617</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>45896</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>45531</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>44574</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>45684</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>44874</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>44805</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>44650</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>44579</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>44354.43200231482</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44358</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44256</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>44620</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>44421</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>44623</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>44439</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         <v>44637</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>44664</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>44852</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>44495</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>44284</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>44412</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>44840</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>44406</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>44456</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>44439</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>44439.44982638889</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>44475</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>44608</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>44550.44184027778</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>44641.58368055556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>44274</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         <v>44277</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         <v>44272</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>44641</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>44623</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>44363</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>44377</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>44319.47118055556</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>44503</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>44708</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>44354.42899305555</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>44531</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>44432</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         <v>44763</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         <v>44519.39126157408</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>44854</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>44873</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>44298.73017361111</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>44524</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44711</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44867</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44279</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>44830</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>44799</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>44445.51737268519</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>44385</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>44872</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>44872</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>44309.56851851852</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>44294</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>44331</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>44377</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>44617.68679398148</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>44706</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>44537</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>44615</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>44354.43542824074</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44272</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>44384</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44384</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>44406</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>44711</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>44705</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>44872</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>44617</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>44496.38612268519</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>44788</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>44980</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7693,7 +7693,7 @@
         <v>44980</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>45288</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>45288</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>45007</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>44880.74898148148</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>45617</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>44904.32708333333</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>44378</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>44838.585</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>44579</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>45091.62641203704</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>45280.49060185185</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>45057</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>44991</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>45182</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>45642.60890046296</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>45425</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>44992</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>45392.53106481482</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>44880</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44931.63074074074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>45181</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>44432</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>44488</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>44508</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>45201</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>44496</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>44760</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>44834</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>44834</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>45730</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>44987</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>44398</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>44398</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>45321</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>45288</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>44571</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>44872</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         <v>45071.42302083333</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>44676</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>44931.73346064815</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>45831.4825</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>44596</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>45894.49456018519</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>45895</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>45831.47150462963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>45896</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>45896</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>44826</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>44582</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>44936</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>45834.47796296296</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>45832.49226851852</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10734,7 +10734,7 @@
         <v>45799</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>45839.43186342593</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>45775</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>45681</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>45839.43791666667</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>45905.54479166667</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>45839.44548611111</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>45838.65256944444</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>45075</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>45609</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>45434.61946759259</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>45384.62136574074</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>45253</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>44834</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11542,7 +11542,7 @@
         <v>44830</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>45841</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>45841</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>44496</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>45911.36902777778</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>44540</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>45646.61570601852</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>45849.82635416667</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>45854</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>45056</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>45918</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>45491</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>45695</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44540</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44901</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44992</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>45726</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>45854</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>45177</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>45873</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>45869</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>45128</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44616</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>45628.69885416667</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44882</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>44936.5134375</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>45873.65800925926</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>45933</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>45364</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>45933</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>45713.55796296296</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>45882.67344907407</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>45071</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>44659</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>45873</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44644</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>44946.48351851852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>45072</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>45525.43216435185</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>45684.71832175926</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>45950</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>45950.48399305555</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>45204</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>45006</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>45288</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>45146.74372685186</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>45742.82775462963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>45131</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>45957.3075</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>45960.68623842593</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>45422</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>45041</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>44963.58222222222</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>44946.48709490741</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14645,7 +14645,7 @@
         <v>45965</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14702,7 +14702,7 @@
         <v>45692</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14759,7 +14759,7 @@
         <v>45551</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14816,7 +14816,7 @@
         <v>45709</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14873,7 +14873,7 @@
         <v>44936.37650462963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>45973.85230324074</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>44979</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15044,7 +15044,7 @@
         <v>45979.49871527778</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>45979.51064814815</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>45939</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>45979.54979166666</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>45189</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15329,7 +15329,7 @@
         <v>44481</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15386,7 +15386,7 @@
         <v>44987</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15443,7 +15443,7 @@
         <v>45209</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15500,7 +15500,7 @@
         <v>45377.72087962963</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>45986</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>45986</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>45628.69790509259</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>45044</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15790,7 +15790,7 @@
         <v>45219</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>45226</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15904,7 +15904,7 @@
         <v>46034.57910879629</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
         <v>45992.39026620371</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16018,7 +16018,7 @@
         <v>46035.49644675926</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         <v>45992.39575231481</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16132,7 +16132,7 @@
         <v>46034.61094907407</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16189,7 +16189,7 @@
         <v>46034.48202546296</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>46034.65070601852</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16303,7 +16303,7 @@
         <v>46034.66802083333</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16360,7 +16360,7 @@
         <v>46035.69744212963</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16417,7 +16417,7 @@
         <v>46035.65237268519</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16474,7 +16474,7 @@
         <v>45209</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>46034.32579861111</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>46034.38765046297</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16650,7 +16650,7 @@
         <v>45628.691875</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16707,7 +16707,7 @@
         <v>45525.45232638889</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16764,7 +16764,7 @@
         <v>46035.55983796297</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         <v>46034.34497685185</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16878,7 +16878,7 @@
         <v>46034.55472222222</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16935,7 +16935,7 @@
         <v>46036.58943287037</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16992,7 +16992,7 @@
         <v>46036.64560185185</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17049,7 +17049,7 @@
         <v>46037.61361111111</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         <v>46036.56039351852</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17163,7 +17163,7 @@
         <v>46036.60653935185</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
         <v>45061</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17277,7 +17277,7 @@
         <v>46036.57185185186</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17334,7 +17334,7 @@
         <v>44518</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>46041.48710648148</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>46041.3790625</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>44525</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>45628.69844907407</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44496</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>44377</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>44581</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>44928</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>45226</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44671</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>46000</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18033,7 +18033,7 @@
         <v>45957</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18090,7 +18090,7 @@
         <v>45077</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18147,7 +18147,7 @@
         <v>45988</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18204,7 +18204,7 @@
         <v>46044.59863425926</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         <v>45957</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>46044.6487037037</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>45988</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>46044.35240740741</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>45511.31266203704</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>44273</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>45904</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>45177</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18742,7 +18742,7 @@
         <v>45898</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>45044</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         <v>45044</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
         <v>46008.57758101852</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>46009.4964699074</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>45237</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>46043</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19146,7 +19146,7 @@
         <v>45219</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19203,7 +19203,7 @@
         <v>46043</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19260,7 +19260,7 @@
         <v>44579</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>45898</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44834</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44953.80351851852</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>44846.71223379629</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19555,7 +19555,7 @@
         <v>44998</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>45235.49327546296</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19669,7 +19669,7 @@
         <v>45756.50608796296</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19726,7 +19726,7 @@
         <v>44998.43070601852</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19783,7 +19783,7 @@
         <v>44845.73668981482</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>44987</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>45014</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19964,7 +19964,7 @@
         <v>44459</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20021,7 +20021,7 @@
         <v>45152</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20083,7 +20083,7 @@
         <v>46031.38653935185</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20140,7 +20140,7 @@
         <v>44901</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20197,7 +20197,7 @@
         <v>46030.67390046296</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20254,7 +20254,7 @@
         <v>46073</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20311,7 +20311,7 @@
         <v>46031.53706018518</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20368,7 +20368,7 @@
         <v>46030.60424768519</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20425,7 +20425,7 @@
         <v>44571</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20482,7 +20482,7 @@
         <v>45684.71578703704</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         <v>44617</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20596,7 +20596,7 @@
         <v>45121</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20653,7 +20653,7 @@
         <v>45265.58905092593</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20710,7 +20710,7 @@
         <v>44900</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20767,7 +20767,7 @@
         <v>45288</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20824,7 +20824,7 @@
         <v>44953</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>45051</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>45733.35274305556</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>45204</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>45071.40663194445</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>44496.90982638889</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>44699.85752314814</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>44831</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>44831</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>44617.6911574074</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>44980</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>44931.63733796297</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>45248</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>44881</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>44894</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21684,7 +21684,7 @@
         <v>45128</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>44279</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21798,7 +21798,7 @@
         <v>45089</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21855,7 +21855,7 @@
         <v>44713</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>45189.63930555555</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>45016</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>45058</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>45681.59104166667</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>45681</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44613.38766203704</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44545</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44827.31700231481</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>45288</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>45401.68202546296</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>45665.84797453704</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44453</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22606,7 +22606,7 @@
         <v>45817</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
         <v>45224</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>45776</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
         <v>45779</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         <v>45001</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22891,7 +22891,7 @@
         <v>44805.53609953704</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
         <v>44363</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
         <v>45629.54146990741</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23062,7 +23062,7 @@
         <v>45799.45325231482</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23119,7 +23119,7 @@
         <v>45803.72429398148</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23176,7 +23176,7 @@
         <v>45803.65414351852</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>45743</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
